--- a/Waimonlist.xlsx
+++ b/Waimonlist.xlsx
@@ -5,18 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NUTTOD\Develope\ROMHACK\ROM\WAIMON\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NUTTOD\Develope\ROMHACK\ROM\WAIMON\Gitupload\Waimon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378CBAAE-A875-4ED2-93FC-C69C833CF3A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{045E83F9-F5D3-4D7B-B061-EEB27BA7B116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="Change">Sheet3!$A:$A</definedName>
     <definedName name="Typelist">Sheet2!$A:$A</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="444">
   <si>
     <t>Pokemon Name</t>
   </si>
@@ -1307,9 +1309,6 @@
     <t>GAWR GURA-C</t>
   </si>
   <si>
-    <t>GAWR GURA-R</t>
-  </si>
-  <si>
     <t>GAWR GURA-SR</t>
   </si>
   <si>
@@ -1334,9 +1333,6 @@
     <t>(Hololive) normal costume</t>
   </si>
   <si>
-    <t>(Hololive) swimsuit</t>
-  </si>
-  <si>
     <t>(Hololive) bikini</t>
   </si>
   <si>
@@ -1350,23 +1346,30 @@
   </si>
   <si>
     <t>(Guity gear) normal</t>
+  </si>
+  <si>
+    <t>Detail</t>
+  </si>
+  <si>
+    <t>Stats and move change</t>
+  </si>
+  <si>
+    <t>Move change</t>
+  </si>
+  <si>
+    <t>Stats change</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1376,22 +1379,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="222"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Tahoma"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
+      <charset val="222"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1403,7 +1408,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1412,17 +1417,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
+      <top style="medium">
+        <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1433,30 +1438,52 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -1759,39 +1786,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E387"/>
+  <dimension ref="A1:F387"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A350" workbookViewId="0">
-      <selection activeCell="E359" sqref="E359"/>
+    <sheetView tabSelected="1" topLeftCell="A301" workbookViewId="0">
+      <selection activeCell="F360" sqref="F360"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="17.3984375" customWidth="1"/>
-    <col min="2" max="2" width="24.3984375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24.3984375" style="1" customWidth="1"/>
     <col min="3" max="4" width="8.69921875" customWidth="1"/>
-    <col min="5" max="5" width="63.59765625" customWidth="1"/>
-    <col min="6" max="6" width="8.69921875" customWidth="1"/>
+    <col min="5" max="5" width="43.5" customWidth="1"/>
+    <col min="6" max="6" width="21.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" thickBot="1">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="13.8">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1802,7 +1832,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="13.8">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1813,7 +1843,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="13.8">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1824,7 +1854,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="13.8">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1832,7 +1862,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="13.8">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1840,7 +1870,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="13.8">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1851,7 +1881,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="13.8">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1859,7 +1889,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="13.8">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1867,7 +1897,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="13.8">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1875,7 +1905,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="13.8">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -1883,7 +1913,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="13.8">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -1891,7 +1921,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="13.8">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1902,7 +1932,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="13.8">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -1913,7 +1943,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="13.8">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -1924,7 +1954,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="13.8">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -1935,7 +1965,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="13.8">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -1946,7 +1976,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="13.8">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -1957,7 +1987,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="13.8">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -1968,37 +1998,37 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="13.8">
       <c r="A20" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="15.75" customHeight="1">
       <c r="A21" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="15.75" customHeight="1">
       <c r="A22" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="15.75" customHeight="1">
       <c r="A23" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="15.75" customHeight="1">
       <c r="A24" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="15.75" customHeight="1">
       <c r="A25" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15.75" customHeight="1">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -2006,7 +2036,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="15.75" customHeight="1">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -2014,1186 +2044,1192 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15.75" customHeight="1">
       <c r="A28" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15.75" customHeight="1">
       <c r="A29" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="15.75" customHeight="1">
       <c r="A30" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="15.75" customHeight="1">
       <c r="A31" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="15.75" customHeight="1">
       <c r="A32" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" ht="15.75" customHeight="1">
       <c r="A33" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" ht="15.75" customHeight="1">
       <c r="A34" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" ht="15.75" customHeight="1">
       <c r="A35" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" ht="15.75" customHeight="1">
       <c r="A36" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" ht="15.75" customHeight="1">
       <c r="A37" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" ht="15.75" customHeight="1">
       <c r="A38" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" ht="15.75" customHeight="1">
       <c r="A39" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" ht="15.75" customHeight="1">
       <c r="A40" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" ht="15.75" customHeight="1">
       <c r="A41" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" ht="15.75" customHeight="1">
       <c r="A42" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" ht="15.75" customHeight="1">
       <c r="A43" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" ht="15.75" customHeight="1">
       <c r="A44" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" ht="15.75" customHeight="1">
       <c r="A45" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" ht="15.75" customHeight="1">
       <c r="A46" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" ht="15.75" customHeight="1">
       <c r="A47" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" ht="15.75" customHeight="1">
       <c r="A48" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" ht="15.75" customHeight="1">
       <c r="A49" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" ht="15.75" customHeight="1">
       <c r="A50" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" ht="15.75" customHeight="1">
       <c r="A51" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" ht="15.75" customHeight="1">
       <c r="A52" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" ht="15.75" customHeight="1">
       <c r="A53" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" ht="15.75" customHeight="1">
       <c r="A54" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" ht="15.75" customHeight="1">
       <c r="A55" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" ht="15.75" customHeight="1">
       <c r="A56" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" ht="15.75" customHeight="1">
       <c r="A57" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" ht="15.75" customHeight="1">
       <c r="A58" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" ht="15.75" customHeight="1">
       <c r="A59" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" ht="15.75" customHeight="1">
       <c r="A60" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" ht="15.75" customHeight="1">
       <c r="A61" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" ht="15.75" customHeight="1">
       <c r="A62" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" ht="15.75" customHeight="1">
       <c r="A63" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" ht="15.75" customHeight="1">
       <c r="A64" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1">
       <c r="A65" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1">
       <c r="A66" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1">
       <c r="A67" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1">
       <c r="A68" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1">
       <c r="A69" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1">
       <c r="A70" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1">
       <c r="A71" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1">
       <c r="A72" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1">
       <c r="A73" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1">
       <c r="A74" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1">
       <c r="A75" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1">
       <c r="A76" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1">
       <c r="A77" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1">
       <c r="A78" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1">
       <c r="A79" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1">
       <c r="A80" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1">
       <c r="A81" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1">
       <c r="A82" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1">
       <c r="A83" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1">
       <c r="A84" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1">
       <c r="A85" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1">
       <c r="A86" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1">
       <c r="A87" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1">
       <c r="A88" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1">
       <c r="A89" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1">
       <c r="A90" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1">
       <c r="A91" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1">
       <c r="A92" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1">
       <c r="A93" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1">
       <c r="A94" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1">
       <c r="A95" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1">
       <c r="A96" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" ht="15.75" customHeight="1">
       <c r="A97" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" ht="15.75" customHeight="1">
       <c r="A98" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" ht="15.75" customHeight="1">
       <c r="A99" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" ht="15.75" customHeight="1">
       <c r="A100" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" ht="15.75" customHeight="1">
       <c r="A101" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" ht="15.75" customHeight="1">
       <c r="A102" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" ht="15.75" customHeight="1">
       <c r="A103" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" ht="15.75" customHeight="1">
       <c r="A104" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" ht="15.75" customHeight="1">
       <c r="A105" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" ht="15.75" customHeight="1">
       <c r="A106" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" ht="15.75" customHeight="1">
       <c r="A107" t="s">
         <v>117</v>
       </c>
-      <c r="B107" s="5" t="s">
-        <v>430</v>
+      <c r="B107" s="2" t="s">
+        <v>429</v>
       </c>
       <c r="C107" t="s">
         <v>411</v>
       </c>
-      <c r="E107" s="2" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E107" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="15.75" customHeight="1">
       <c r="A108" t="s">
         <v>118</v>
       </c>
-      <c r="B108" s="5" t="s">
-        <v>431</v>
+      <c r="B108" s="2" t="s">
+        <v>430</v>
       </c>
       <c r="C108" t="s">
         <v>411</v>
       </c>
-      <c r="E108" s="2" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E108" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="15.75" customHeight="1">
       <c r="A109" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" ht="15.75" customHeight="1">
       <c r="A110" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" ht="15.75" customHeight="1">
       <c r="A111" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" ht="15.75" customHeight="1">
       <c r="A112" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1">
       <c r="A113" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1">
       <c r="A114" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1">
       <c r="A115" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1">
       <c r="A116" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1">
       <c r="A117" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1">
       <c r="A118" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1">
       <c r="A119" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1">
       <c r="A120" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1">
       <c r="A121" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1">
       <c r="A122" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1">
       <c r="A123" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1">
       <c r="A124" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1">
       <c r="A125" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1">
       <c r="A126" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1">
       <c r="A127" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1">
       <c r="A128" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1">
       <c r="A129" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1">
       <c r="A130" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1">
       <c r="A131" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1">
       <c r="A132" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1">
       <c r="A133" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1">
       <c r="A134" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1">
       <c r="A135" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1">
       <c r="A136" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1">
       <c r="A137" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1">
       <c r="A138" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1">
       <c r="A139" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1">
       <c r="A140" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1">
       <c r="A141" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1">
       <c r="A142" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1">
       <c r="A143" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1">
       <c r="A144" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1">
       <c r="A145" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1">
       <c r="A146" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1">
       <c r="A147" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1">
       <c r="A148" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1">
       <c r="A149" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1">
       <c r="A150" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1">
       <c r="A151" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1">
       <c r="A152" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1">
       <c r="A153" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1">
       <c r="A154" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1">
       <c r="A155" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1">
       <c r="A156" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1">
       <c r="A157" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1">
       <c r="A158" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1">
       <c r="A159" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1">
       <c r="A160" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1">
       <c r="A161" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1">
       <c r="A162" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1">
       <c r="A163" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1">
       <c r="A164" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1">
       <c r="A165" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1">
       <c r="A166" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1">
       <c r="A167" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1">
       <c r="A168" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1">
       <c r="A169" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1">
       <c r="A170" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1">
       <c r="A171" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1">
       <c r="A172" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1">
       <c r="A173" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1">
       <c r="A174" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1">
       <c r="A175" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1">
       <c r="A176" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1">
       <c r="A177" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1">
       <c r="A178" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1">
       <c r="A179" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1">
       <c r="A180" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1">
       <c r="A181" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1">
       <c r="A182" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1">
       <c r="A183" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1">
       <c r="A184" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1">
       <c r="A185" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1">
       <c r="A186" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1">
       <c r="A187" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1">
       <c r="A188" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1">
       <c r="A189" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1">
       <c r="A190" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1">
       <c r="A191" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1">
       <c r="A192" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1">
       <c r="A193" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1">
       <c r="A194" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1">
       <c r="A195" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1">
       <c r="A196" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1">
       <c r="A197" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1">
       <c r="A198" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1">
       <c r="A199" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1">
       <c r="A200" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1">
       <c r="A201" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1">
       <c r="A202" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1">
       <c r="A203" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1">
       <c r="A204" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1">
       <c r="A205" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1">
       <c r="A206" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1">
       <c r="A207" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1">
       <c r="A208" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1">
       <c r="A209" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1">
       <c r="A210" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1">
       <c r="A211" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1">
       <c r="A212" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1">
       <c r="A213" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1">
       <c r="A214" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1">
       <c r="A215" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1">
       <c r="A216" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1">
       <c r="A217" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1">
       <c r="A218" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1">
       <c r="A219" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1">
       <c r="A220" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:1" ht="15.75" customHeight="1">
       <c r="A221" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:1" ht="15.75" customHeight="1">
       <c r="A222" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:1" ht="15.75" customHeight="1">
       <c r="A223" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:1" ht="15.75" customHeight="1">
       <c r="A224" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:1" ht="15.75" customHeight="1">
       <c r="A225" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:1" ht="15.75" customHeight="1">
       <c r="A226" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:1" ht="15.75" customHeight="1">
       <c r="A227" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:1" ht="15.75" customHeight="1">
       <c r="A228" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:1" ht="15.75" customHeight="1">
       <c r="A229" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:1" ht="15.75" customHeight="1">
       <c r="A230" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:1" ht="15.75" customHeight="1">
       <c r="A231" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:1" ht="15.75" customHeight="1">
       <c r="A232" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:1" ht="15.75" customHeight="1">
       <c r="A233" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:1" ht="15.75" customHeight="1">
       <c r="A234" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:1" ht="15.75" customHeight="1">
       <c r="A235" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:1" ht="15.75" customHeight="1">
       <c r="A236" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:1" ht="15.75" customHeight="1">
       <c r="A237" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:1" ht="15.75" customHeight="1">
       <c r="A238" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:1" ht="15.75" customHeight="1">
       <c r="A239" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:1" ht="15.75" customHeight="1">
       <c r="A240" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="241" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" ht="15.75" customHeight="1">
       <c r="A241" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="242" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" ht="15.75" customHeight="1">
       <c r="A242" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="243" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" ht="15.75" customHeight="1">
       <c r="A243" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="244" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" ht="15.75" customHeight="1">
       <c r="A244" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="245" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" ht="15.75" customHeight="1">
       <c r="A245" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="246" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" ht="15.75" customHeight="1">
       <c r="A246" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="247" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" ht="15.75" customHeight="1">
       <c r="A247" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="248" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" ht="15.75" customHeight="1">
       <c r="A248" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="249" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" ht="15.75" customHeight="1">
       <c r="A249" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="250" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" ht="15.75" customHeight="1">
       <c r="A250" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="251" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" ht="15.75" customHeight="1">
       <c r="A251" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="252" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" ht="15.75" customHeight="1">
       <c r="A252" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="253" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" ht="15.75" customHeight="1">
       <c r="A253" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="254" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" ht="15.75" customHeight="1">
       <c r="A254" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="255" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" ht="15.75" customHeight="1">
       <c r="A255" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="256" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" ht="15.75" customHeight="1">
       <c r="A256" t="s">
         <v>266</v>
       </c>
-      <c r="B256" s="2" t="s">
+      <c r="B256" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="C256" s="2" t="s">
+      <c r="C256" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="D256" s="2" t="s">
+      <c r="D256" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="E256" s="2" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E256" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" ht="15.75" customHeight="1">
       <c r="A257" t="s">
         <v>267</v>
       </c>
-      <c r="B257" s="2" t="s">
+      <c r="B257" s="1" t="s">
         <v>425</v>
       </c>
       <c r="C257" t="s">
@@ -3202,16 +3238,16 @@
       <c r="D257" t="s">
         <v>411</v>
       </c>
-      <c r="E257" s="2" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E257" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" ht="15.75" customHeight="1">
       <c r="A258" t="s">
         <v>268</v>
       </c>
-      <c r="B258" s="2" t="s">
-        <v>429</v>
+      <c r="B258" s="1" t="s">
+        <v>428</v>
       </c>
       <c r="C258" t="s">
         <v>412</v>
@@ -3219,157 +3255,141 @@
       <c r="D258" t="s">
         <v>411</v>
       </c>
-      <c r="E258" s="2" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E258" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" ht="15.75" customHeight="1">
       <c r="A259" t="s">
         <v>269</v>
       </c>
-      <c r="B259" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="C259" s="2" t="s">
+      <c r="C259" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D259" s="2" t="s">
+      <c r="D259" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="E259" s="2" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="260" spans="1:5" ht="15.75" customHeight="1">
       <c r="A260" t="s">
         <v>270</v>
       </c>
-      <c r="B260" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="C260" s="2" t="s">
+      <c r="B260" s="3"/>
+      <c r="C260" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D260" s="2" t="s">
+      <c r="D260" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="E260" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E260" s="1"/>
+    </row>
+    <row r="261" spans="1:5" ht="15.75" customHeight="1">
       <c r="A261" t="s">
         <v>271</v>
       </c>
-      <c r="B261" s="6" t="s">
-        <v>428</v>
-      </c>
-      <c r="C261" s="2" t="s">
+      <c r="C261" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D261" s="2" t="s">
+      <c r="D261" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="E261" s="2" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="262" spans="1:5" ht="15.75" customHeight="1">
       <c r="A262" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="263" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" ht="15.75" customHeight="1">
       <c r="A263" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="264" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" ht="15.75" customHeight="1">
       <c r="A264" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="265" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" ht="15.75" customHeight="1">
       <c r="A265" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="266" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" ht="15.75" customHeight="1">
       <c r="A266" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="267" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" ht="15.75" customHeight="1">
       <c r="A267" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="268" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" ht="15.75" customHeight="1">
       <c r="A268" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="269" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" ht="15.75" customHeight="1">
       <c r="A269" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="270" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" ht="15.75" customHeight="1">
       <c r="A270" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="271" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" ht="15.75" customHeight="1">
       <c r="A271" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="272" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" ht="15.75" customHeight="1">
       <c r="A272" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="273" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" ht="15.75" customHeight="1">
       <c r="A273" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="274" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" ht="15.75" customHeight="1">
       <c r="A274" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="275" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" ht="15.75" customHeight="1">
       <c r="A275" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="276" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" ht="15.75" customHeight="1">
       <c r="A276" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="277" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" ht="15.75" customHeight="1">
       <c r="A277" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="278" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" ht="15.75" customHeight="1">
       <c r="A278" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="279" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" ht="15.75" customHeight="1">
       <c r="A279" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="280" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3" ht="15.75" customHeight="1">
       <c r="A280" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="281" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" ht="15.75" customHeight="1">
       <c r="A281" t="s">
         <v>291</v>
       </c>
@@ -3377,7 +3397,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="282" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3" ht="15.75" customHeight="1">
       <c r="A282" t="s">
         <v>293</v>
       </c>
@@ -3385,7 +3405,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="283" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3" ht="15.75" customHeight="1">
       <c r="A283" t="s">
         <v>294</v>
       </c>
@@ -3393,102 +3413,102 @@
         <v>292</v>
       </c>
     </row>
-    <row r="284" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3" ht="15.75" customHeight="1">
       <c r="A284" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="285" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3" ht="15.75" customHeight="1">
       <c r="A285" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="286" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" ht="15.75" customHeight="1">
       <c r="A286" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="287" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3" ht="15.75" customHeight="1">
       <c r="A287" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="288" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3" ht="15.75" customHeight="1">
       <c r="A288" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" ht="15.75" customHeight="1">
       <c r="A289" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" ht="15.75" customHeight="1">
       <c r="A290" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" ht="15.75" customHeight="1">
       <c r="A291" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" ht="15.75" customHeight="1">
       <c r="A292" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" ht="15.75" customHeight="1">
       <c r="A293" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" ht="15.75" customHeight="1">
       <c r="A294" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" ht="15.75" customHeight="1">
       <c r="A295" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" ht="15.75" customHeight="1">
       <c r="A296" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" ht="15.75" customHeight="1">
       <c r="A297" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" ht="15.75" customHeight="1">
       <c r="A298" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" ht="15.75" customHeight="1">
       <c r="A299" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" ht="15.75" customHeight="1">
       <c r="A300" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" ht="15.75" customHeight="1">
       <c r="A301" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" ht="15.75" customHeight="1">
       <c r="A302" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" ht="15.75" customHeight="1">
       <c r="A303" t="s">
         <v>314</v>
       </c>
@@ -3499,7 +3519,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" ht="15.75" customHeight="1">
       <c r="A304" t="s">
         <v>317</v>
       </c>
@@ -3507,17 +3527,17 @@
         <v>318</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" ht="15.75" customHeight="1">
       <c r="A305" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" ht="15.75" customHeight="1">
       <c r="A306" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" ht="15.75" customHeight="1">
       <c r="A307" t="s">
         <v>321</v>
       </c>
@@ -3528,122 +3548,146 @@
         <v>322</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" ht="15.75" customHeight="1">
       <c r="A308" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" ht="15.75" customHeight="1">
       <c r="A309" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" ht="15.75" customHeight="1">
       <c r="A310" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" ht="15.75" customHeight="1">
       <c r="A311" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" ht="15.75" customHeight="1">
       <c r="A312" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="313" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" ht="15.75" customHeight="1">
       <c r="A313" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" ht="15.75" customHeight="1">
       <c r="A314" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="315" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" ht="15.75" customHeight="1">
       <c r="A315" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" ht="15.75" customHeight="1">
       <c r="A316" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" ht="15.75" customHeight="1">
       <c r="A317" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="318" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" ht="15.75" customHeight="1">
       <c r="A318" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="319" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" ht="15.75" customHeight="1">
       <c r="A319" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="320" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B319" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C319" t="s">
+        <v>423</v>
+      </c>
+      <c r="D319" t="s">
+        <v>407</v>
+      </c>
+      <c r="E319" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" ht="15.75" customHeight="1">
       <c r="A320" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="321" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B320" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="C320" t="s">
+        <v>423</v>
+      </c>
+      <c r="D320" t="s">
+        <v>407</v>
+      </c>
+      <c r="E320" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" ht="15.75" customHeight="1">
       <c r="A321" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4" ht="15.75" customHeight="1">
       <c r="A322" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="323" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" ht="15.75" customHeight="1">
       <c r="A323" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="324" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:4" ht="15.75" customHeight="1">
       <c r="A324" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4" ht="15.75" customHeight="1">
       <c r="A325" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4" ht="15.75" customHeight="1">
       <c r="A326" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="327" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4" ht="15.75" customHeight="1">
       <c r="A327" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="328" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4" ht="15.75" customHeight="1">
       <c r="A328" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="329" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4" ht="15.75" customHeight="1">
       <c r="A329" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:4" ht="15.75" customHeight="1">
       <c r="A330" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" ht="15.75" customHeight="1">
       <c r="A331" t="s">
         <v>346</v>
       </c>
@@ -3654,22 +3698,22 @@
         <v>348</v>
       </c>
     </row>
-    <row r="332" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4" ht="15.75" customHeight="1">
       <c r="A332" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="333" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:4" ht="15.75" customHeight="1">
       <c r="A333" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:4" ht="15.75" customHeight="1">
       <c r="A334" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="335" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:4" ht="15.75" customHeight="1">
       <c r="A335" t="s">
         <v>352</v>
       </c>
@@ -3680,206 +3724,209 @@
         <v>13</v>
       </c>
     </row>
-    <row r="336" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:4" ht="15.75" customHeight="1">
       <c r="A336" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="337" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:1" ht="15.75" customHeight="1">
       <c r="A337" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="338" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:1" ht="15.75" customHeight="1">
       <c r="A338" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="339" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:1" ht="15.75" customHeight="1">
       <c r="A339" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="340" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:1" ht="15.75" customHeight="1">
       <c r="A340" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="341" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:1" ht="15.75" customHeight="1">
       <c r="A341" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="342" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:1" ht="15.75" customHeight="1">
       <c r="A342" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="343" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:1" ht="15.75" customHeight="1">
       <c r="A343" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="344" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:1" ht="15.75" customHeight="1">
       <c r="A344" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="345" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:1" ht="15.75" customHeight="1">
       <c r="A345" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="346" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:1" ht="15.75" customHeight="1">
       <c r="A346" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="347" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:1" ht="15.75" customHeight="1">
       <c r="A347" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="348" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:1" ht="15.75" customHeight="1">
       <c r="A348" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="349" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:1" ht="15.75" customHeight="1">
       <c r="A349" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="350" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:1" ht="15.75" customHeight="1">
       <c r="A350" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="351" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:1" ht="15.75" customHeight="1">
       <c r="A351" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="352" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:1" ht="15.75" customHeight="1">
       <c r="A352" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="353" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" ht="15.75" customHeight="1">
       <c r="A353" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="354" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" ht="15.75" customHeight="1">
       <c r="A354" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="355" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" ht="15.75" customHeight="1">
       <c r="A355" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="356" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" ht="15.75" customHeight="1">
       <c r="A356" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="357" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" ht="15.75" customHeight="1">
       <c r="A357" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="358" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" ht="15.75" customHeight="1">
       <c r="A358" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="359" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6" ht="15.75" customHeight="1">
       <c r="A359" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="360" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6" ht="15.75" customHeight="1">
       <c r="A360" t="s">
         <v>377</v>
       </c>
-      <c r="B360" s="2" t="s">
-        <v>434</v>
+      <c r="B360" s="1" t="s">
+        <v>433</v>
       </c>
       <c r="C360" t="s">
         <v>407</v>
       </c>
       <c r="E360" t="s">
+        <v>439</v>
+      </c>
+      <c r="F360" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="361" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" ht="15.75" customHeight="1">
       <c r="A361" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="362" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6" ht="15.75" customHeight="1">
       <c r="A362" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="363" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6" ht="15.75" customHeight="1">
       <c r="A363" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="364" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6" ht="15.75" customHeight="1">
       <c r="A364" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="365" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" ht="15.75" customHeight="1">
       <c r="A365" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="366" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" ht="15.75" customHeight="1">
       <c r="A366" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="367" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6" ht="15.75" customHeight="1">
       <c r="A367" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="368" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" ht="15.75" customHeight="1">
       <c r="A368" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="369" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:4" ht="15.75" customHeight="1">
       <c r="A369" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="370" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:4" ht="15.75" customHeight="1">
       <c r="A370" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="371" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:4" ht="15.75" customHeight="1">
       <c r="A371" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="372" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:4" ht="15.75" customHeight="1">
       <c r="A372" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="373" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:4" ht="15.75" customHeight="1">
       <c r="A373" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="374" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:4" ht="15.75" customHeight="1">
       <c r="A374" t="s">
         <v>391</v>
       </c>
@@ -3890,47 +3937,47 @@
         <v>13</v>
       </c>
     </row>
-    <row r="375" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:4" ht="15.75" customHeight="1">
       <c r="A375" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="376" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:4" ht="15.75" customHeight="1">
       <c r="A376" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="377" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:4" ht="15.75" customHeight="1">
       <c r="A377" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="378" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:4" ht="15.75" customHeight="1">
       <c r="A378" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="379" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:4" ht="15.75" customHeight="1">
       <c r="A379" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="380" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:4" ht="15.75" customHeight="1">
       <c r="A380" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="381" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:4" ht="15.75" customHeight="1">
       <c r="A381" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="382" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:4" ht="15.75" customHeight="1">
       <c r="A382" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="383" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:4" ht="15.75" customHeight="1">
       <c r="A383" t="s">
         <v>400</v>
       </c>
@@ -3938,7 +3985,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="384" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:4" ht="15.75" customHeight="1">
       <c r="A384" t="s">
         <v>401</v>
       </c>
@@ -3946,7 +3993,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="385" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:4" ht="15.75" customHeight="1">
       <c r="A385" t="s">
         <v>402</v>
       </c>
@@ -3957,12 +4004,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="386" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:4" ht="15.75" customHeight="1">
       <c r="A386" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="387" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:4" ht="15.75" customHeight="1">
       <c r="A387" t="s">
         <v>404</v>
       </c>
@@ -3971,9 +4018,12 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:D387" xr:uid="{97EEF77D-9616-45B0-BA66-EB1567EC398A}">
       <formula1>Typelist</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{8F986B7E-C92D-4EA3-A6CF-2A9AD63FB3D1}">
+      <formula1>Change</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -3986,102 +4036,135 @@
   <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="8.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1">
       <c r="A13" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1">
       <c r="A15" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>423</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F257043-7451-4302-B3E9-073DF1E37E01}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="32.69921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>443</v>
       </c>
     </row>
   </sheetData>

--- a/Waimonlist.xlsx
+++ b/Waimonlist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NUTTOD\Develope\ROMHACK\ROM\WAIMON\Gitupload\Waimon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{045E83F9-F5D3-4D7B-B061-EEB27BA7B116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D3C2A6-219A-4A9C-A756-41FE0AF82E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="491">
   <si>
     <t>Pokemon Name</t>
   </si>
@@ -1258,9 +1258,6 @@
     <t xml:space="preserve">Electric  </t>
   </si>
   <si>
-    <t xml:space="preserve">Fairy  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Fighting  </t>
   </si>
   <si>
@@ -1300,36 +1297,12 @@
     <t xml:space="preserve">Water  </t>
   </si>
   <si>
-    <t>TAMAKI-C</t>
-  </si>
-  <si>
-    <t>TAMAKI-R</t>
-  </si>
-  <si>
-    <t>GAWR GURA-C</t>
-  </si>
-  <si>
-    <t>GAWR GURA-SR</t>
-  </si>
-  <si>
-    <t>TAMAKI-SR</t>
-  </si>
-  <si>
     <t>Striker-C</t>
   </si>
   <si>
     <t>Striker-SR</t>
   </si>
   <si>
-    <t>(DNFDuel) Normal</t>
-  </si>
-  <si>
-    <t>(DNFDuel) Bikini</t>
-  </si>
-  <si>
-    <t>Baiken</t>
-  </si>
-  <si>
     <t>(Hololive) normal costume</t>
   </si>
   <si>
@@ -1345,9 +1318,6 @@
     <t>(Fire force) main costume with open jacket</t>
   </si>
   <si>
-    <t>(Guity gear) normal</t>
-  </si>
-  <si>
     <t>Detail</t>
   </si>
   <si>
@@ -1358,13 +1328,184 @@
   </si>
   <si>
     <t>Stats change</t>
+  </si>
+  <si>
+    <t>(Guilty gear) normal</t>
+  </si>
+  <si>
+    <t>(Guilty gear) reverse bunny suit</t>
+  </si>
+  <si>
+    <t>(Guilty gear) valentine gift</t>
+  </si>
+  <si>
+    <t>Jack-o-Valentine-C</t>
+  </si>
+  <si>
+    <t>Ramlethal-C</t>
+  </si>
+  <si>
+    <t>Ramlethal-SR</t>
+  </si>
+  <si>
+    <t>Jack-o-Valentine-SR</t>
+  </si>
+  <si>
+    <t>Baiken-SR</t>
+  </si>
+  <si>
+    <t>I-no-C</t>
+  </si>
+  <si>
+    <t>I-no-SR</t>
+  </si>
+  <si>
+    <t>Millia-C</t>
+  </si>
+  <si>
+    <t>Millia-SR</t>
+  </si>
+  <si>
+    <t>(Guilty gear) Shamisen I-No or Slingshot bikini</t>
+  </si>
+  <si>
+    <t>(Guilty gear) Crop Jacket with micro bikini</t>
+  </si>
+  <si>
+    <t>Giovanna-C</t>
+  </si>
+  <si>
+    <t>Giovanna-SR</t>
+  </si>
+  <si>
+    <t>(Guilty gear) brazil bikini</t>
+  </si>
+  <si>
+    <t>Nyotengu-C</t>
+  </si>
+  <si>
+    <t>Nyotengu-R-B</t>
+  </si>
+  <si>
+    <t>Nyotengu-SR-A</t>
+  </si>
+  <si>
+    <t>Nyotengu-R-A</t>
+  </si>
+  <si>
+    <t>Nyotengu-SR-B</t>
+  </si>
+  <si>
+    <t>(doaxvv) normal</t>
+  </si>
+  <si>
+    <t>Amy-SR</t>
+  </si>
+  <si>
+    <t>Honoka-C</t>
+  </si>
+  <si>
+    <t>Marie-SR</t>
+  </si>
+  <si>
+    <t>(doaxvv)</t>
+  </si>
+  <si>
+    <t>Tamaki-C</t>
+  </si>
+  <si>
+    <t>Tamaki-R</t>
+  </si>
+  <si>
+    <t>Tamaki-SR</t>
+  </si>
+  <si>
+    <t>Gawr gura-C</t>
+  </si>
+  <si>
+    <t>Gawr gura-SR</t>
+  </si>
+  <si>
+    <t>Honoka-R</t>
+  </si>
+  <si>
+    <t>Honoka-SR</t>
+  </si>
+  <si>
+    <t>(doaxvv) swimsuit</t>
+  </si>
+  <si>
+    <t>(doaxvv) swimsuit 1</t>
+  </si>
+  <si>
+    <t>(doaxvv) swimsuit 2</t>
+  </si>
+  <si>
+    <t>Ayane-C</t>
+  </si>
+  <si>
+    <t>Ayane-R</t>
+  </si>
+  <si>
+    <t>Ayane-SR</t>
+  </si>
+  <si>
+    <t>Yoko-C</t>
+  </si>
+  <si>
+    <t>Yoko-R</t>
+  </si>
+  <si>
+    <t>Yoko-SR</t>
+  </si>
+  <si>
+    <t>(gurren lagann) normal</t>
+  </si>
+  <si>
+    <t>(gurren lagann) swimsuit 1</t>
+  </si>
+  <si>
+    <t>(gurren lagann) swimsuit 2</t>
+  </si>
+  <si>
+    <t>(DNFDuel) bikini</t>
+  </si>
+  <si>
+    <t>(DNFDuel) normal</t>
+  </si>
+  <si>
+    <t>(Blue Archive) normal</t>
+  </si>
+  <si>
+    <t>Nen Master-R</t>
+  </si>
+  <si>
+    <t>Nen Master-SR</t>
+  </si>
+  <si>
+    <t>Asuna-R</t>
+  </si>
+  <si>
+    <t>Asuna-SR</t>
+  </si>
+  <si>
+    <t>Nozomi-SR</t>
+  </si>
+  <si>
+    <t>Hikari-SR</t>
+  </si>
+  <si>
+    <t>Nami-SR</t>
+  </si>
+  <si>
+    <t>(One piece) bikini 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1386,18 +1527,9 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="222"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="222"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1469,19 +1601,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1788,24 +1922,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F387"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A301" workbookViewId="0">
-      <selection activeCell="F360" sqref="F360"/>
+    <sheetView tabSelected="1" topLeftCell="A339" workbookViewId="0">
+      <selection activeCell="F349" sqref="F349"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.3984375" customWidth="1"/>
-    <col min="2" max="2" width="24.3984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.3984375" style="3" customWidth="1"/>
     <col min="3" max="4" width="8.69921875" customWidth="1"/>
     <col min="5" max="5" width="43.5" customWidth="1"/>
     <col min="6" max="6" width="21.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" thickBot="1">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
@@ -1815,24 +1949,24 @@
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="13.8">
+    <row r="2" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="13.8">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1843,7 +1977,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.8">
+    <row r="4" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1854,7 +1988,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="13.8">
+    <row r="5" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1862,7 +1996,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8">
+    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1870,7 +2004,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.8">
+    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1881,7 +2015,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.8">
+    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1889,7 +2023,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.8">
+    <row r="9" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1897,7 +2031,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.8">
+    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1905,7 +2039,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.8">
+    <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -1913,7 +2047,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13.8">
+    <row r="12" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -1921,7 +2055,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.8">
+    <row r="13" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1932,7 +2066,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.8">
+    <row r="14" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -1943,7 +2077,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.8">
+    <row r="15" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -1954,7 +2088,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.8">
+    <row r="16" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -1965,7 +2099,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="13.8">
+    <row r="17" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -1976,7 +2110,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="13.8">
+    <row r="18" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -1987,7 +2121,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="13.8">
+    <row r="19" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -1998,37 +2132,37 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="13.8">
+    <row r="20" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1">
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1">
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1">
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1">
+    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1">
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1">
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -2036,7 +2170,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1">
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -2044,1222 +2178,1336 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1">
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1">
+    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1">
+    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.75" customHeight="1">
+    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.75" customHeight="1">
+    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="15.75" customHeight="1">
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="15.75" customHeight="1">
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="15.75" customHeight="1">
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="15.75" customHeight="1">
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="15.75" customHeight="1">
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="15.75" customHeight="1">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="15.75" customHeight="1">
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="15.75" customHeight="1">
+    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" ht="15.75" customHeight="1">
+      <c r="B40" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="C40" t="s">
+        <v>417</v>
+      </c>
+      <c r="E40" t="s">
+        <v>469</v>
+      </c>
+      <c r="F40" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" ht="15.75" customHeight="1">
+      <c r="B41" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="C41" t="s">
+        <v>417</v>
+      </c>
+      <c r="E41" t="s">
+        <v>470</v>
+      </c>
+      <c r="F41" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="15.75" customHeight="1">
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="15.75" customHeight="1">
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="15.75" customHeight="1">
+    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="15.75" customHeight="1">
+    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="15.75" customHeight="1">
+    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="15.75" customHeight="1">
+    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="15.75" customHeight="1">
+    <row r="49" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="15.75" customHeight="1">
+    <row r="50" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="15.75" customHeight="1">
+    <row r="51" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="15.75" customHeight="1">
+    <row r="52" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="15.75" customHeight="1">
+    <row r="53" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="15.75" customHeight="1">
+    <row r="54" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="15.75" customHeight="1">
+    <row r="55" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="15.75" customHeight="1">
+    <row r="56" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="15.75" customHeight="1">
+    <row r="57" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="15.75" customHeight="1">
+    <row r="58" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="15.75" customHeight="1">
+    <row r="59" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="15.75" customHeight="1">
+    <row r="60" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="15.75" customHeight="1">
+    <row r="61" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="15.75" customHeight="1">
+    <row r="62" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="15.75" customHeight="1">
+    <row r="63" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="15.75" customHeight="1">
+    <row r="64" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="15.75" customHeight="1">
+    <row r="97" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="15.75" customHeight="1">
+    <row r="98" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="15.75" customHeight="1">
+    <row r="99" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="15.75" customHeight="1">
+    <row r="100" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="15.75" customHeight="1">
+    <row r="101" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="15.75" customHeight="1">
+    <row r="102" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="15.75" customHeight="1">
+    <row r="103" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="15.75" customHeight="1">
+    <row r="104" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="15.75" customHeight="1">
+    <row r="105" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="15.75" customHeight="1">
+    <row r="106" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="15.75" customHeight="1">
+    <row r="107" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>117</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C107" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E107" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="F107" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="F107" s="1" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="15.75" customHeight="1">
+    </row>
+    <row r="108" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>118</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C108" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>432</v>
+        <v>480</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="15.75" customHeight="1">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="15.75" customHeight="1">
+    <row r="110" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="15.75" customHeight="1">
+    <row r="111" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="15.75" customHeight="1">
+    <row r="112" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1">
+    <row r="145" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1">
+    <row r="146" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1">
+    <row r="147" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1">
+    <row r="148" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1">
+    <row r="149" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1">
+    <row r="150" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1">
+    <row r="151" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1">
+    <row r="152" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1">
+    <row r="153" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1">
+    <row r="154" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1">
+    <row r="155" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1">
+    <row r="156" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1">
+      <c r="B156" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="C156" t="s">
+        <v>411</v>
+      </c>
+      <c r="E156" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1">
+      <c r="B157" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="C157" t="s">
+        <v>411</v>
+      </c>
+      <c r="D157" t="s">
+        <v>410</v>
+      </c>
+      <c r="E157" t="s">
+        <v>478</v>
+      </c>
+      <c r="F157" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1">
+      <c r="B158" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="C158" t="s">
+        <v>411</v>
+      </c>
+      <c r="D158" t="s">
+        <v>410</v>
+      </c>
+      <c r="E158" t="s">
+        <v>479</v>
+      </c>
+      <c r="F158" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1">
+    <row r="160" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1">
+    <row r="161" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1">
+    <row r="162" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1">
+    <row r="163" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1">
+    <row r="164" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1">
+    <row r="165" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1">
+    <row r="166" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1">
+    <row r="167" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1">
+    <row r="168" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1">
+    <row r="169" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1">
+    <row r="170" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1">
+    <row r="171" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1">
+    <row r="172" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1">
+    <row r="173" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1">
+    <row r="174" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1">
+    <row r="175" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1">
+      <c r="B175" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="C175" t="s">
+        <v>417</v>
+      </c>
+      <c r="E175" t="s">
+        <v>456</v>
+      </c>
+      <c r="F175" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1">
+    <row r="193" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1">
+    <row r="194" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1">
+    <row r="195" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1">
+    <row r="196" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1">
+    <row r="197" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1">
+    <row r="198" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1">
+    <row r="199" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1">
+    <row r="200" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1">
+    <row r="201" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1">
+      <c r="B201" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="C201" t="s">
+        <v>407</v>
+      </c>
+      <c r="D201" t="s">
+        <v>421</v>
+      </c>
+      <c r="E201" t="s">
+        <v>456</v>
+      </c>
+      <c r="F201" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1">
+    <row r="203" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1">
+    <row r="204" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1">
+    <row r="205" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1">
+    <row r="206" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1">
+    <row r="207" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1">
+    <row r="208" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1">
+    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1">
+    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1">
+    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1">
+    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="225" spans="1:1" ht="15.75" customHeight="1">
+    <row r="225" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="226" spans="1:1" ht="15.75" customHeight="1">
+    <row r="226" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="227" spans="1:1" ht="15.75" customHeight="1">
+    <row r="227" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="228" spans="1:1" ht="15.75" customHeight="1">
+    <row r="228" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="229" spans="1:1" ht="15.75" customHeight="1">
+    <row r="229" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" ht="15.75" customHeight="1">
+      <c r="B229" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="C229" t="s">
+        <v>407</v>
+      </c>
+      <c r="D229" t="s">
+        <v>411</v>
+      </c>
+      <c r="E229" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="231" spans="1:1" ht="15.75" customHeight="1">
+      <c r="B230" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="C230" t="s">
+        <v>407</v>
+      </c>
+      <c r="D230" t="s">
+        <v>411</v>
+      </c>
+      <c r="E230" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="232" spans="1:1" ht="15.75" customHeight="1">
+    <row r="232" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="233" spans="1:1" ht="15.75" customHeight="1">
+    <row r="233" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="234" spans="1:1" ht="15.75" customHeight="1">
+    <row r="234" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="235" spans="1:1" ht="15.75" customHeight="1">
+    <row r="235" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="236" spans="1:1" ht="15.75" customHeight="1">
+    <row r="236" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="237" spans="1:1" ht="15.75" customHeight="1">
+    <row r="237" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="238" spans="1:1" ht="15.75" customHeight="1">
+    <row r="238" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="239" spans="1:1" ht="15.75" customHeight="1">
+    <row r="239" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="240" spans="1:1" ht="15.75" customHeight="1">
+    <row r="240" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="241" spans="1:5" ht="15.75" customHeight="1">
+    <row r="241" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="242" spans="1:5" ht="15.75" customHeight="1">
+    <row r="242" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="243" spans="1:5" ht="15.75" customHeight="1">
+    <row r="243" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="244" spans="1:5" ht="15.75" customHeight="1">
+    <row r="244" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="245" spans="1:5" ht="15.75" customHeight="1">
+    <row r="245" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="246" spans="1:5" ht="15.75" customHeight="1">
+    <row r="246" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="247" spans="1:5" ht="15.75" customHeight="1">
+    <row r="247" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="248" spans="1:5" ht="15.75" customHeight="1">
+    <row r="248" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="249" spans="1:5" ht="15.75" customHeight="1">
+    <row r="249" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="250" spans="1:5" ht="15.75" customHeight="1">
+    <row r="250" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="251" spans="1:5" ht="15.75" customHeight="1">
+    <row r="251" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="252" spans="1:5" ht="15.75" customHeight="1">
+    <row r="252" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="253" spans="1:5" ht="15.75" customHeight="1">
+    <row r="253" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="254" spans="1:5" ht="15.75" customHeight="1">
+    <row r="254" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="255" spans="1:5" ht="15.75" customHeight="1">
+    <row r="255" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="256" spans="1:5" ht="15.75" customHeight="1">
+    <row r="256" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>266</v>
       </c>
-      <c r="B256" s="1" t="s">
-        <v>424</v>
+      <c r="B256" s="3" t="s">
+        <v>461</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5" ht="15.75" customHeight="1">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>267</v>
       </c>
-      <c r="B257" s="1" t="s">
-        <v>425</v>
+      <c r="B257" s="3" t="s">
+        <v>462</v>
       </c>
       <c r="C257" t="s">
         <v>10</v>
       </c>
       <c r="D257" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5" ht="15.75" customHeight="1">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>268</v>
       </c>
-      <c r="B258" s="1" t="s">
-        <v>428</v>
+      <c r="B258" s="3" t="s">
+        <v>463</v>
       </c>
       <c r="C258" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D258" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5" ht="15.75" customHeight="1">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>269</v>
       </c>
@@ -3270,11 +3518,11 @@
         <v>347</v>
       </c>
     </row>
-    <row r="260" spans="1:5" ht="15.75" customHeight="1">
+    <row r="260" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>270</v>
       </c>
-      <c r="B260" s="3"/>
+      <c r="B260" s="4"/>
       <c r="C260" s="1" t="s">
         <v>15</v>
       </c>
@@ -3283,7 +3531,7 @@
       </c>
       <c r="E260" s="1"/>
     </row>
-    <row r="261" spans="1:5" ht="15.75" customHeight="1">
+    <row r="261" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>271</v>
       </c>
@@ -3294,102 +3542,210 @@
         <v>347</v>
       </c>
     </row>
-    <row r="262" spans="1:5" ht="15.75" customHeight="1">
+    <row r="262" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="263" spans="1:5" ht="15.75" customHeight="1">
+      <c r="B262" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="C262" t="s">
+        <v>407</v>
+      </c>
+      <c r="E262" t="s">
+        <v>434</v>
+      </c>
+      <c r="F262" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="264" spans="1:5" ht="15.75" customHeight="1">
+      <c r="B263" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="C263" t="s">
+        <v>407</v>
+      </c>
+      <c r="D263" t="s">
+        <v>409</v>
+      </c>
+      <c r="E263" t="s">
+        <v>450</v>
+      </c>
+      <c r="F263" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="265" spans="1:5" ht="15.75" customHeight="1">
+      <c r="B264" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="C264" t="s">
+        <v>417</v>
+      </c>
+      <c r="F264" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="266" spans="1:5" ht="15.75" customHeight="1">
+      <c r="B265" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="C265" t="s">
+        <v>417</v>
+      </c>
+      <c r="D265" t="s">
+        <v>409</v>
+      </c>
+      <c r="F265" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="267" spans="1:5" ht="15.75" customHeight="1">
+      <c r="B266" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="C266" t="s">
+        <v>407</v>
+      </c>
+      <c r="E266" t="s">
+        <v>460</v>
+      </c>
+      <c r="F266" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="268" spans="1:5" ht="15.75" customHeight="1">
+      <c r="B267" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="C267" t="s">
+        <v>407</v>
+      </c>
+      <c r="E267" t="s">
+        <v>460</v>
+      </c>
+      <c r="F267" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="269" spans="1:5" ht="15.75" customHeight="1">
+      <c r="B268" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="C268" t="s">
+        <v>407</v>
+      </c>
+      <c r="E268" t="s">
+        <v>460</v>
+      </c>
+      <c r="F268" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="270" spans="1:5" ht="15.75" customHeight="1">
+      <c r="B269" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="C269" t="s">
+        <v>407</v>
+      </c>
+      <c r="E269" t="s">
+        <v>460</v>
+      </c>
+      <c r="F269" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="271" spans="1:5" ht="15.75" customHeight="1">
+      <c r="B270" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="C270" t="s">
+        <v>407</v>
+      </c>
+      <c r="E270" t="s">
+        <v>460</v>
+      </c>
+      <c r="F270" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="272" spans="1:5" ht="15.75" customHeight="1">
+    <row r="272" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="273" spans="1:3" ht="15.75" customHeight="1">
+    <row r="273" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="274" spans="1:3" ht="15.75" customHeight="1">
+    <row r="274" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="275" spans="1:3" ht="15.75" customHeight="1">
+    <row r="275" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="276" spans="1:3" ht="15.75" customHeight="1">
+    <row r="276" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="277" spans="1:3" ht="15.75" customHeight="1">
+    <row r="277" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="278" spans="1:3" ht="15.75" customHeight="1">
+    <row r="278" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="279" spans="1:3" ht="15.75" customHeight="1">
+    <row r="279" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="280" spans="1:3" ht="15.75" customHeight="1">
+    <row r="280" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="281" spans="1:3" ht="15.75" customHeight="1">
+    <row r="281" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>291</v>
       </c>
@@ -3397,7 +3753,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="282" spans="1:3" ht="15.75" customHeight="1">
+    <row r="282" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>293</v>
       </c>
@@ -3405,7 +3761,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="283" spans="1:3" ht="15.75" customHeight="1">
+    <row r="283" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>294</v>
       </c>
@@ -3413,102 +3769,162 @@
         <v>292</v>
       </c>
     </row>
-    <row r="284" spans="1:3" ht="15.75" customHeight="1">
+    <row r="284" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="285" spans="1:3" ht="15.75" customHeight="1">
+    <row r="285" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="286" spans="1:3" ht="15.75" customHeight="1">
+    <row r="286" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="287" spans="1:3" ht="15.75" customHeight="1">
+    <row r="287" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="288" spans="1:3" ht="15.75" customHeight="1">
+    <row r="288" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="15.75" customHeight="1">
+    <row r="289" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="15.75" customHeight="1">
+    <row r="290" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="15.75" customHeight="1">
+    <row r="291" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="292" spans="1:4" ht="15.75" customHeight="1">
+      <c r="B291" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="C291" t="s">
+        <v>406</v>
+      </c>
+      <c r="E291" t="s">
+        <v>456</v>
+      </c>
+      <c r="F291" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="293" spans="1:4" ht="15.75" customHeight="1">
+      <c r="B292" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="C292" t="s">
+        <v>406</v>
+      </c>
+      <c r="D292" t="s">
+        <v>407</v>
+      </c>
+      <c r="E292" t="s">
+        <v>469</v>
+      </c>
+      <c r="F292" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="294" spans="1:4" ht="15.75" customHeight="1">
+      <c r="B293" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="C293" t="s">
+        <v>406</v>
+      </c>
+      <c r="D293" t="s">
+        <v>413</v>
+      </c>
+      <c r="E293" t="s">
+        <v>470</v>
+      </c>
+      <c r="F293" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="15.75" customHeight="1">
+    <row r="295" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="15.75" customHeight="1">
+    <row r="296" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="15.75" customHeight="1">
+    <row r="297" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="298" spans="1:4" ht="15.75" customHeight="1">
+      <c r="B297" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="C297" t="s">
+        <v>410</v>
+      </c>
+      <c r="E297" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="299" spans="1:4" ht="15.75" customHeight="1">
+      <c r="B298" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="C298" t="s">
+        <v>410</v>
+      </c>
+      <c r="E298" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="15.75" customHeight="1">
+    <row r="300" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="15.75" customHeight="1">
+    <row r="301" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="15.75" customHeight="1">
+    <row r="302" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="15.75" customHeight="1">
+    <row r="303" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>314</v>
       </c>
@@ -3519,7 +3935,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="15.75" customHeight="1">
+    <row r="304" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>317</v>
       </c>
@@ -3527,17 +3943,17 @@
         <v>318</v>
       </c>
     </row>
-    <row r="305" spans="1:5" ht="15.75" customHeight="1">
+    <row r="305" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="306" spans="1:5" ht="15.75" customHeight="1">
+    <row r="306" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="307" spans="1:5" ht="15.75" customHeight="1">
+    <row r="307" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>321</v>
       </c>
@@ -3548,146 +3964,200 @@
         <v>322</v>
       </c>
     </row>
-    <row r="308" spans="1:5" ht="15.75" customHeight="1">
+    <row r="308" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="309" spans="1:5" ht="15.75" customHeight="1">
+      <c r="B308" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="C308" t="s">
+        <v>410</v>
+      </c>
+      <c r="D308" t="s">
+        <v>419</v>
+      </c>
+      <c r="E308" t="s">
+        <v>434</v>
+      </c>
+      <c r="F308" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="310" spans="1:5" ht="15.75" customHeight="1">
+      <c r="B309" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="C309" t="s">
+        <v>410</v>
+      </c>
+      <c r="D309" t="s">
+        <v>419</v>
+      </c>
+      <c r="E309" t="s">
+        <v>447</v>
+      </c>
+      <c r="F309" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="311" spans="1:5" ht="15.75" customHeight="1">
+    <row r="311" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="312" spans="1:5" ht="15.75" customHeight="1">
+    <row r="312" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="313" spans="1:5" ht="15.75" customHeight="1">
+      <c r="B312" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="C312" t="s">
+        <v>409</v>
+      </c>
+      <c r="E312" t="s">
+        <v>482</v>
+      </c>
+      <c r="F312" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="314" spans="1:5" ht="15.75" customHeight="1">
+      <c r="B313" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="C313" t="s">
+        <v>409</v>
+      </c>
+      <c r="E313" t="s">
+        <v>482</v>
+      </c>
+      <c r="F313" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="315" spans="1:5" ht="15.75" customHeight="1">
+    <row r="315" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="316" spans="1:5" ht="15.75" customHeight="1">
+    <row r="316" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="317" spans="1:5" ht="15.75" customHeight="1">
+    <row r="317" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="318" spans="1:5" ht="15.75" customHeight="1">
+    <row r="318" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="319" spans="1:5" ht="15.75" customHeight="1">
+    <row r="319" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>334</v>
       </c>
-      <c r="B319" s="3" t="s">
-        <v>426</v>
+      <c r="B319" s="4" t="s">
+        <v>464</v>
       </c>
       <c r="C319" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D319" t="s">
         <v>407</v>
       </c>
       <c r="E319" s="1" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5" ht="15.75" customHeight="1">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>335</v>
       </c>
-      <c r="B320" s="3" t="s">
-        <v>427</v>
+      <c r="B320" s="4" t="s">
+        <v>465</v>
       </c>
       <c r="C320" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D320" t="s">
         <v>407</v>
       </c>
       <c r="E320" s="1" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="321" spans="1:4" ht="15.75" customHeight="1">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="15.75" customHeight="1">
+    <row r="322" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="323" spans="1:4" ht="15.75" customHeight="1">
+    <row r="323" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="324" spans="1:4" ht="15.75" customHeight="1">
+    <row r="324" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="15.75" customHeight="1">
+    <row r="325" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="15.75" customHeight="1">
+    <row r="326" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="327" spans="1:4" ht="15.75" customHeight="1">
+    <row r="327" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="328" spans="1:4" ht="15.75" customHeight="1">
+    <row r="328" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="329" spans="1:4" ht="15.75" customHeight="1">
+    <row r="329" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="15.75" customHeight="1">
+    <row r="330" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="15.75" customHeight="1">
+    <row r="331" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>346</v>
       </c>
@@ -3698,22 +4168,22 @@
         <v>348</v>
       </c>
     </row>
-    <row r="332" spans="1:4" ht="15.75" customHeight="1">
+    <row r="332" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="333" spans="1:4" ht="15.75" customHeight="1">
+    <row r="333" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="15.75" customHeight="1">
+    <row r="334" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="335" spans="1:4" ht="15.75" customHeight="1">
+    <row r="335" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>352</v>
       </c>
@@ -3724,209 +4194,305 @@
         <v>13</v>
       </c>
     </row>
-    <row r="336" spans="1:4" ht="15.75" customHeight="1">
+    <row r="336" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="337" spans="1:1" ht="15.75" customHeight="1">
+    <row r="337" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="338" spans="1:1" ht="15.75" customHeight="1">
+    <row r="338" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="339" spans="1:1" ht="15.75" customHeight="1">
+    <row r="339" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="340" spans="1:1" ht="15.75" customHeight="1">
+    <row r="340" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="341" spans="1:1" ht="15.75" customHeight="1">
+    <row r="341" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="342" spans="1:1" ht="15.75" customHeight="1">
+    <row r="342" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="343" spans="1:1" ht="15.75" customHeight="1">
+    <row r="343" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="344" spans="1:1" ht="15.75" customHeight="1">
+    <row r="344" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="345" spans="1:1" ht="15.75" customHeight="1">
+      <c r="B344" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="C344" t="s">
+        <v>421</v>
+      </c>
+      <c r="D344" t="s">
+        <v>419</v>
+      </c>
+      <c r="E344" t="s">
+        <v>434</v>
+      </c>
+      <c r="F344" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="346" spans="1:1" ht="15.75" customHeight="1">
+      <c r="B345" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="C345" t="s">
+        <v>421</v>
+      </c>
+      <c r="D345" t="s">
+        <v>419</v>
+      </c>
+      <c r="E345" t="s">
+        <v>435</v>
+      </c>
+      <c r="F345" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="347" spans="1:1" ht="15.75" customHeight="1">
+    <row r="347" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="348" spans="1:1" ht="15.75" customHeight="1">
+    <row r="348" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="349" spans="1:1" ht="15.75" customHeight="1">
+    <row r="349" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="350" spans="1:1" ht="15.75" customHeight="1">
+    <row r="350" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="351" spans="1:1" ht="15.75" customHeight="1">
+      <c r="B350" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="C350" t="s">
+        <v>422</v>
+      </c>
+      <c r="E350" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="352" spans="1:1" ht="15.75" customHeight="1">
+      <c r="B351" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="C351" t="s">
+        <v>422</v>
+      </c>
+      <c r="E351" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="353" spans="1:6" ht="15.75" customHeight="1">
+      <c r="B352" t="s">
+        <v>489</v>
+      </c>
+      <c r="C352" t="s">
+        <v>417</v>
+      </c>
+      <c r="E352" t="s">
+        <v>490</v>
+      </c>
+      <c r="F352" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="354" spans="1:6" ht="15.75" customHeight="1">
+    <row r="354" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="355" spans="1:6" ht="15.75" customHeight="1">
+      <c r="B354" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="C354" t="s">
+        <v>413</v>
+      </c>
+      <c r="E354" t="s">
+        <v>434</v>
+      </c>
+      <c r="F354" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="356" spans="1:6" ht="15.75" customHeight="1">
+      <c r="B355" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="C355" t="s">
+        <v>413</v>
+      </c>
+      <c r="E355" t="s">
+        <v>436</v>
+      </c>
+      <c r="F355" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="357" spans="1:6" ht="15.75" customHeight="1">
+    <row r="357" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="358" spans="1:6" ht="15.75" customHeight="1">
+    <row r="358" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="359" spans="1:6" ht="15.75" customHeight="1">
+    <row r="359" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="360" spans="1:6" ht="15.75" customHeight="1">
+      <c r="B359" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="C359" t="s">
+        <v>419</v>
+      </c>
+      <c r="E359" t="s">
+        <v>456</v>
+      </c>
+      <c r="F359" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>377</v>
       </c>
-      <c r="B360" s="1" t="s">
-        <v>433</v>
+      <c r="B360" s="3" t="s">
+        <v>441</v>
       </c>
       <c r="C360" t="s">
         <v>407</v>
       </c>
       <c r="E360" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="F360" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="361" spans="1:6" ht="15.75" customHeight="1">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="362" spans="1:6" ht="15.75" customHeight="1">
+    <row r="362" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="363" spans="1:6" ht="15.75" customHeight="1">
+    <row r="363" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="364" spans="1:6" ht="15.75" customHeight="1">
+    <row r="364" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="365" spans="1:6" ht="15.75" customHeight="1">
+    <row r="365" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="366" spans="1:6" ht="15.75" customHeight="1">
+    <row r="366" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="367" spans="1:6" ht="15.75" customHeight="1">
+    <row r="367" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="368" spans="1:6" ht="15.75" customHeight="1">
+    <row r="368" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="369" spans="1:4" ht="15.75" customHeight="1">
+    <row r="369" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="370" spans="1:4" ht="15.75" customHeight="1">
+    <row r="370" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="371" spans="1:4" ht="15.75" customHeight="1">
+    <row r="371" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="372" spans="1:4" ht="15.75" customHeight="1">
+    <row r="372" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="373" spans="1:4" ht="15.75" customHeight="1">
+    <row r="373" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="374" spans="1:4" ht="15.75" customHeight="1">
+    <row r="374" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>391</v>
       </c>
@@ -3937,47 +4503,47 @@
         <v>13</v>
       </c>
     </row>
-    <row r="375" spans="1:4" ht="15.75" customHeight="1">
+    <row r="375" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="376" spans="1:4" ht="15.75" customHeight="1">
+    <row r="376" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="377" spans="1:4" ht="15.75" customHeight="1">
+    <row r="377" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="378" spans="1:4" ht="15.75" customHeight="1">
+    <row r="378" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="379" spans="1:4" ht="15.75" customHeight="1">
+    <row r="379" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="380" spans="1:4" ht="15.75" customHeight="1">
+    <row r="380" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="381" spans="1:4" ht="15.75" customHeight="1">
+    <row r="381" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="382" spans="1:4" ht="15.75" customHeight="1">
+    <row r="382" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="383" spans="1:4" ht="15.75" customHeight="1">
+    <row r="383" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>400</v>
       </c>
@@ -3985,7 +4551,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="384" spans="1:4" ht="15.75" customHeight="1">
+    <row r="384" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>401</v>
       </c>
@@ -3993,7 +4559,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="385" spans="1:4" ht="15.75" customHeight="1">
+    <row r="385" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>402</v>
       </c>
@@ -4004,12 +4570,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="386" spans="1:4" ht="15.75" customHeight="1">
+    <row r="386" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="387" spans="1:4" ht="15.75" customHeight="1">
+    <row r="387" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>404</v>
       </c>
@@ -4033,109 +4599,105 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43FA7B2B-C791-4064-B5CC-4FBEC507DF60}">
-  <dimension ref="A1:A18"/>
+  <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>423</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4147,24 +4709,24 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
     </row>
   </sheetData>

--- a/Waimonlist.xlsx
+++ b/Waimonlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NUTTOD\Develope\ROMHACK\ROM\WAIMON\Gitupload\Waimon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D3C2A6-219A-4A9C-A756-41FE0AF82E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CEF635D-ADCB-4378-AEB5-DEA52692BCAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="492">
   <si>
     <t>Pokemon Name</t>
   </si>
@@ -1499,6 +1499,9 @@
   </si>
   <si>
     <t>(One piece) bikini 1</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -1920,10 +1923,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F387"/>
+  <dimension ref="A1:F389"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A339" workbookViewId="0">
-      <selection activeCell="F349" sqref="F349"/>
+    <sheetView tabSelected="1" topLeftCell="A367" workbookViewId="0">
+      <selection activeCell="B381" sqref="B381"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4581,6 +4584,11 @@
       </c>
       <c r="C387" t="s">
         <v>292</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>491</v>
       </c>
     </row>
   </sheetData>

--- a/Waimonlist.xlsx
+++ b/Waimonlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NUTTOD\Develope\ROMHACK\ROM\WAIMON\Gitupload\Waimon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CEF635D-ADCB-4378-AEB5-DEA52692BCAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{474CC4F0-7D3E-4A19-959D-2CF60CEA8A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="491">
   <si>
     <t>Pokemon Name</t>
   </si>
@@ -1499,9 +1499,6 @@
   </si>
   <si>
     <t>(One piece) bikini 1</t>
-  </si>
-  <si>
-    <t>.</t>
   </si>
 </sst>
 </file>
@@ -1923,10 +1920,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F389"/>
+  <dimension ref="A1:F387"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A367" workbookViewId="0">
-      <selection activeCell="B381" sqref="B381"/>
+    <sheetView tabSelected="1" topLeftCell="A369" workbookViewId="0">
+      <selection activeCell="B388" sqref="B388"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4584,11 +4581,6 @@
       </c>
       <c r="C387" t="s">
         <v>292</v>
-      </c>
-    </row>
-    <row r="389" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A389" t="s">
-        <v>491</v>
       </c>
     </row>
   </sheetData>

--- a/Waimonlist.xlsx
+++ b/Waimonlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NUTTOD\Develope\ROMHACK\ROM\WAIMON\Gitupload\Waimon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{474CC4F0-7D3E-4A19-959D-2CF60CEA8A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40FE2818-77AC-448D-A0C0-ECEC80A43131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4680" yWindow="924" windowWidth="17280" windowHeight="11268" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="515">
   <si>
     <t>Pokemon Name</t>
   </si>
@@ -1303,9 +1303,6 @@
     <t>Striker-SR</t>
   </si>
   <si>
-    <t>(Hololive) normal costume</t>
-  </si>
-  <si>
     <t>(Hololive) bikini</t>
   </si>
   <si>
@@ -1396,9 +1393,6 @@
     <t>Nyotengu-SR-B</t>
   </si>
   <si>
-    <t>(doaxvv) normal</t>
-  </si>
-  <si>
     <t>Amy-SR</t>
   </si>
   <si>
@@ -1408,9 +1402,6 @@
     <t>Marie-SR</t>
   </si>
   <si>
-    <t>(doaxvv)</t>
-  </si>
-  <si>
     <t>Tamaki-C</t>
   </si>
   <si>
@@ -1432,15 +1423,6 @@
     <t>Honoka-SR</t>
   </si>
   <si>
-    <t>(doaxvv) swimsuit</t>
-  </si>
-  <si>
-    <t>(doaxvv) swimsuit 1</t>
-  </si>
-  <si>
-    <t>(doaxvv) swimsuit 2</t>
-  </si>
-  <si>
     <t>Ayane-C</t>
   </si>
   <si>
@@ -1498,7 +1480,97 @@
     <t>Nami-SR</t>
   </si>
   <si>
-    <t>(One piece) bikini 1</t>
+    <t>(Bleach) God speed</t>
+  </si>
+  <si>
+    <t>(Bleach) choptop</t>
+  </si>
+  <si>
+    <t>(Bleach) normal</t>
+  </si>
+  <si>
+    <t>Houshou marine-C</t>
+  </si>
+  <si>
+    <t>Houshou marine-SR</t>
+  </si>
+  <si>
+    <t>Yoruichi-L</t>
+  </si>
+  <si>
+    <t>Rangiku-L</t>
+  </si>
+  <si>
+    <t>Tier harrible-L</t>
+  </si>
+  <si>
+    <t>(Hololive) normal</t>
+  </si>
+  <si>
+    <t>Hancock-R</t>
+  </si>
+  <si>
+    <t>Hancock-SR</t>
+  </si>
+  <si>
+    <t>(One piece) normal</t>
+  </si>
+  <si>
+    <t>(One piece) bikini</t>
+  </si>
+  <si>
+    <t>(One piece) red dress with center open</t>
+  </si>
+  <si>
+    <t>(One piece) violet dress</t>
+  </si>
+  <si>
+    <t>Nico Robin-C</t>
+  </si>
+  <si>
+    <t>Nico Robin-R</t>
+  </si>
+  <si>
+    <t>Nico Robin-SR</t>
+  </si>
+  <si>
+    <t>(Doaxvv) swimsuit 1</t>
+  </si>
+  <si>
+    <t>(Doaxvv) swimsuit 2</t>
+  </si>
+  <si>
+    <t>(Doaxvv) normal</t>
+  </si>
+  <si>
+    <t>(Doaxvv)</t>
+  </si>
+  <si>
+    <t>(Doaxvv) swimsuit</t>
+  </si>
+  <si>
+    <t>(One piece) splash style</t>
+  </si>
+  <si>
+    <t>(One piece) blue chop top sweater bikini bottom</t>
+  </si>
+  <si>
+    <t>Bonney-C</t>
+  </si>
+  <si>
+    <t>Bonney-SR</t>
+  </si>
+  <si>
+    <t>(One piece) figure bikini</t>
+  </si>
+  <si>
+    <t>Vivi-L</t>
+  </si>
+  <si>
+    <t>Rebecca-L</t>
+  </si>
+  <si>
+    <t>(One piece) bikini warrior</t>
   </si>
 </sst>
 </file>
@@ -1922,8 +1994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F387"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A369" workbookViewId="0">
-      <selection activeCell="B388" sqref="B388"/>
+    <sheetView tabSelected="1" topLeftCell="A372" workbookViewId="0">
+      <selection activeCell="F381" sqref="F381"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1949,7 +2021,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>405</v>
@@ -2243,16 +2315,16 @@
         <v>50</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C40" t="s">
         <v>417</v>
       </c>
       <c r="E40" t="s">
-        <v>469</v>
+        <v>502</v>
       </c>
       <c r="F40" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2260,16 +2332,16 @@
         <v>51</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C41" t="s">
         <v>417</v>
       </c>
       <c r="E41" t="s">
-        <v>470</v>
+        <v>503</v>
       </c>
       <c r="F41" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2608,10 +2680,10 @@
         <v>410</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2625,10 +2697,10 @@
         <v>410</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2731,82 +2803,106 @@
         <v>138</v>
       </c>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B130" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="C130" t="s">
+        <v>422</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B131" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="C131" t="s">
+        <v>422</v>
+      </c>
+      <c r="D131" t="s">
+        <v>407</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="F131" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>154</v>
       </c>
@@ -2871,13 +2967,13 @@
         <v>166</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="C156" t="s">
         <v>411</v>
       </c>
       <c r="E156" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2885,7 +2981,7 @@
         <v>167</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C157" t="s">
         <v>411</v>
@@ -2894,10 +2990,10 @@
         <v>410</v>
       </c>
       <c r="E157" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="F157" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2905,7 +3001,7 @@
         <v>168</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="C158" t="s">
         <v>411</v>
@@ -2914,10 +3010,10 @@
         <v>410</v>
       </c>
       <c r="E158" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="F158" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3005,16 +3101,16 @@
         <v>185</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C175" t="s">
         <v>417</v>
       </c>
       <c r="E175" t="s">
-        <v>456</v>
+        <v>504</v>
       </c>
       <c r="F175" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3147,7 +3243,7 @@
         <v>211</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C201" t="s">
         <v>407</v>
@@ -3156,10 +3252,10 @@
         <v>421</v>
       </c>
       <c r="E201" t="s">
-        <v>456</v>
+        <v>504</v>
       </c>
       <c r="F201" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="202" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3302,7 +3398,7 @@
         <v>239</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C229" t="s">
         <v>407</v>
@@ -3311,7 +3407,7 @@
         <v>411</v>
       </c>
       <c r="E229" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="230" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3319,7 +3415,7 @@
         <v>240</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C230" t="s">
         <v>407</v>
@@ -3328,7 +3424,7 @@
         <v>411</v>
       </c>
       <c r="E230" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="231" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3381,87 +3477,132 @@
         <v>250</v>
       </c>
     </row>
-    <row r="241" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="242" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="243" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="244" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="245" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B244" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="C244" t="s">
+        <v>409</v>
+      </c>
+      <c r="D244" t="s">
+        <v>407</v>
+      </c>
+      <c r="E244" t="s">
+        <v>484</v>
+      </c>
+      <c r="F244" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B245" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="C245" t="s">
+        <v>411</v>
+      </c>
+      <c r="D245" t="s">
+        <v>413</v>
+      </c>
+      <c r="E245" t="s">
+        <v>486</v>
+      </c>
+      <c r="F245" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="247" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B246" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="C246" t="s">
+        <v>422</v>
+      </c>
+      <c r="D246" t="s">
+        <v>416</v>
+      </c>
+      <c r="E246" t="s">
+        <v>485</v>
+      </c>
+      <c r="F246" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="248" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="249" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="250" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="251" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="252" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="253" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="254" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="255" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="256" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>266</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C256" s="1" t="s">
         <v>411</v>
@@ -3470,7 +3611,7 @@
         <v>410</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="257" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3478,7 +3619,7 @@
         <v>267</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C257" t="s">
         <v>10</v>
@@ -3487,7 +3628,7 @@
         <v>410</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="258" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3495,7 +3636,7 @@
         <v>268</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C258" t="s">
         <v>411</v>
@@ -3504,7 +3645,7 @@
         <v>410</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="259" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3547,16 +3688,16 @@
         <v>272</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C262" t="s">
         <v>407</v>
       </c>
       <c r="E262" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F262" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="263" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3564,7 +3705,7 @@
         <v>273</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C263" t="s">
         <v>407</v>
@@ -3573,10 +3714,10 @@
         <v>409</v>
       </c>
       <c r="E263" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F263" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="264" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3584,13 +3725,13 @@
         <v>274</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="C264" t="s">
         <v>417</v>
       </c>
       <c r="F264" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="265" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3598,7 +3739,7 @@
         <v>275</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="C265" t="s">
         <v>417</v>
@@ -3607,7 +3748,7 @@
         <v>409</v>
       </c>
       <c r="F265" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="266" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3615,16 +3756,16 @@
         <v>276</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C266" t="s">
         <v>407</v>
       </c>
       <c r="E266" t="s">
-        <v>460</v>
+        <v>505</v>
       </c>
       <c r="F266" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="267" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3632,16 +3773,16 @@
         <v>277</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C267" t="s">
         <v>407</v>
       </c>
       <c r="E267" t="s">
-        <v>460</v>
+        <v>505</v>
       </c>
       <c r="F267" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="268" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3649,16 +3790,16 @@
         <v>278</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C268" t="s">
         <v>407</v>
       </c>
       <c r="E268" t="s">
-        <v>460</v>
+        <v>505</v>
       </c>
       <c r="F268" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="269" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3666,16 +3807,16 @@
         <v>279</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C269" t="s">
         <v>407</v>
       </c>
       <c r="E269" t="s">
-        <v>460</v>
+        <v>505</v>
       </c>
       <c r="F269" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="270" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3683,16 +3824,16 @@
         <v>280</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C270" t="s">
         <v>407</v>
       </c>
       <c r="E270" t="s">
-        <v>460</v>
+        <v>505</v>
       </c>
       <c r="F270" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="271" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3705,91 +3846,118 @@
         <v>282</v>
       </c>
     </row>
-    <row r="273" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="274" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="275" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="276" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="277" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="278" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="279" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="280" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="281" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>291</v>
       </c>
+      <c r="B281" s="3" t="s">
+        <v>499</v>
+      </c>
       <c r="C281" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="282" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D281" t="s">
+        <v>414</v>
+      </c>
+      <c r="E281" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>293</v>
       </c>
+      <c r="B282" s="3" t="s">
+        <v>500</v>
+      </c>
       <c r="C282" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="283" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D282" t="s">
+        <v>414</v>
+      </c>
+      <c r="E282" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>294</v>
       </c>
+      <c r="B283" s="3" t="s">
+        <v>501</v>
+      </c>
       <c r="C283" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="284" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D283" t="s">
+        <v>414</v>
+      </c>
+      <c r="E283" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="285" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="286" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="287" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="288" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>299</v>
       </c>
@@ -3809,16 +3977,16 @@
         <v>302</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="C291" t="s">
         <v>406</v>
       </c>
       <c r="E291" t="s">
-        <v>456</v>
+        <v>504</v>
       </c>
       <c r="F291" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="292" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3826,7 +3994,7 @@
         <v>303</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="C292" t="s">
         <v>406</v>
@@ -3835,10 +4003,10 @@
         <v>407</v>
       </c>
       <c r="E292" t="s">
-        <v>469</v>
+        <v>502</v>
       </c>
       <c r="F292" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="293" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3846,7 +4014,7 @@
         <v>304</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C293" t="s">
         <v>406</v>
@@ -3855,10 +4023,10 @@
         <v>413</v>
       </c>
       <c r="E293" t="s">
-        <v>470</v>
+        <v>503</v>
       </c>
       <c r="F293" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="294" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3881,13 +4049,13 @@
         <v>308</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="C297" t="s">
         <v>410</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
     </row>
     <row r="298" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3895,13 +4063,13 @@
         <v>309</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="C298" t="s">
         <v>410</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
     </row>
     <row r="299" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3918,11 +4086,35 @@
       <c r="A301" t="s">
         <v>312</v>
       </c>
+      <c r="B301" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="C301" t="s">
+        <v>422</v>
+      </c>
+      <c r="E301" t="s">
+        <v>504</v>
+      </c>
+      <c r="F301" t="s">
+        <v>431</v>
+      </c>
     </row>
     <row r="302" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>313</v>
       </c>
+      <c r="B302" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="C302" t="s">
+        <v>422</v>
+      </c>
+      <c r="E302" t="s">
+        <v>506</v>
+      </c>
+      <c r="F302" t="s">
+        <v>431</v>
+      </c>
     </row>
     <row r="303" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
@@ -3969,7 +4161,7 @@
         <v>323</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C308" t="s">
         <v>410</v>
@@ -3978,7 +4170,7 @@
         <v>419</v>
       </c>
       <c r="E308" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F308" t="s">
         <v>431</v>
@@ -3989,7 +4181,7 @@
         <v>324</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C309" t="s">
         <v>410</v>
@@ -3998,7 +4190,7 @@
         <v>419</v>
       </c>
       <c r="E309" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F309" t="s">
         <v>431</v>
@@ -4019,16 +4211,16 @@
         <v>327</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="C312" t="s">
         <v>409</v>
       </c>
       <c r="E312" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="F312" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="313" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4036,16 +4228,16 @@
         <v>328</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="C313" t="s">
         <v>409</v>
       </c>
       <c r="E313" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="F313" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="314" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4078,7 +4270,7 @@
         <v>334</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C319" t="s">
         <v>422</v>
@@ -4087,7 +4279,7 @@
         <v>407</v>
       </c>
       <c r="E319" s="1" t="s">
-        <v>425</v>
+        <v>492</v>
       </c>
     </row>
     <row r="320" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4095,7 +4287,7 @@
         <v>335</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C320" t="s">
         <v>422</v>
@@ -4104,60 +4296,90 @@
         <v>407</v>
       </c>
       <c r="E320" s="1" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="321" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="323" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="324" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="327" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B326" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="C326" t="s">
+        <v>417</v>
+      </c>
+      <c r="D326" t="s">
+        <v>419</v>
+      </c>
+      <c r="E326" t="s">
+        <v>495</v>
+      </c>
+      <c r="F326" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="328" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B327" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="C327" t="s">
+        <v>417</v>
+      </c>
+      <c r="D327" t="s">
+        <v>419</v>
+      </c>
+      <c r="E327" t="s">
+        <v>511</v>
+      </c>
+      <c r="F327" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="329" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>346</v>
       </c>
@@ -4168,22 +4390,22 @@
         <v>348</v>
       </c>
     </row>
-    <row r="332" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="333" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="335" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>352</v>
       </c>
@@ -4194,7 +4416,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="336" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>353</v>
       </c>
@@ -4239,7 +4461,7 @@
         <v>361</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C344" t="s">
         <v>421</v>
@@ -4248,10 +4470,10 @@
         <v>419</v>
       </c>
       <c r="E344" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F344" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="345" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4259,7 +4481,7 @@
         <v>362</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C345" t="s">
         <v>421</v>
@@ -4268,10 +4490,10 @@
         <v>419</v>
       </c>
       <c r="E345" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F345" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="346" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4299,13 +4521,19 @@
         <v>367</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>461</v>
+        <v>493</v>
       </c>
       <c r="C350" t="s">
+        <v>419</v>
+      </c>
+      <c r="D350" t="s">
         <v>422</v>
       </c>
       <c r="E350" t="s">
-        <v>456</v>
+        <v>498</v>
+      </c>
+      <c r="F350" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="351" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4313,30 +4541,36 @@
         <v>368</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>463</v>
+        <v>494</v>
       </c>
       <c r="C351" t="s">
+        <v>419</v>
+      </c>
+      <c r="D351" t="s">
         <v>422</v>
       </c>
       <c r="E351" t="s">
-        <v>468</v>
+        <v>497</v>
+      </c>
+      <c r="F351" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="352" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>369</v>
       </c>
-      <c r="B352" t="s">
-        <v>489</v>
+      <c r="B352" s="3" t="s">
+        <v>483</v>
       </c>
       <c r="C352" t="s">
         <v>417</v>
       </c>
       <c r="E352" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="F352" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="353" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4349,16 +4583,16 @@
         <v>371</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C354" t="s">
         <v>413</v>
       </c>
       <c r="E354" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F354" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="355" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4366,16 +4600,16 @@
         <v>372</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C355" t="s">
         <v>413</v>
       </c>
       <c r="E355" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F355" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="356" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4398,16 +4632,16 @@
         <v>376</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C359" t="s">
         <v>419</v>
       </c>
       <c r="E359" t="s">
-        <v>456</v>
+        <v>504</v>
       </c>
       <c r="F359" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="360" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4415,16 +4649,16 @@
         <v>377</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C360" t="s">
         <v>407</v>
       </c>
       <c r="E360" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F360" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="361" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4467,32 +4701,32 @@
         <v>385</v>
       </c>
     </row>
-    <row r="369" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="370" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="371" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="372" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="373" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="374" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>391</v>
       </c>
@@ -4503,47 +4737,77 @@
         <v>13</v>
       </c>
     </row>
-    <row r="375" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="376" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="377" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="378" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="379" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="380" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="381" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="382" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B381" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="C381" t="s">
+        <v>422</v>
+      </c>
+      <c r="D381" t="s">
+        <v>419</v>
+      </c>
+      <c r="E381" t="s">
+        <v>496</v>
+      </c>
+      <c r="F381" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="383" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B382" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="C382" t="s">
+        <v>408</v>
+      </c>
+      <c r="D382" t="s">
+        <v>421</v>
+      </c>
+      <c r="E382" t="s">
+        <v>514</v>
+      </c>
+      <c r="F382" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>400</v>
       </c>
@@ -4551,7 +4815,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="384" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>401</v>
       </c>
@@ -4585,11 +4849,11 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:D387" xr:uid="{97EEF77D-9616-45B0-BA66-EB1567EC398A}">
-      <formula1>Typelist</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{8F986B7E-C92D-4EA3-A6CF-2A9AD63FB3D1}">
       <formula1>Change</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:D1048576" xr:uid="{97EEF77D-9616-45B0-BA66-EB1567EC398A}">
+      <formula1>Typelist</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -4716,17 +4980,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
   </sheetData>

--- a/Waimonlist.xlsx
+++ b/Waimonlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NUTTOD\Develope\ROMHACK\ROM\WAIMON\Gitupload\Waimon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40FE2818-77AC-448D-A0C0-ECEC80A43131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57747F7A-C013-4321-9F9E-4D21F3EA2CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="924" windowWidth="17280" windowHeight="11268" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5352" yWindow="1620" windowWidth="17280" windowHeight="11268" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="520">
   <si>
     <t>Pokemon Name</t>
   </si>
@@ -1571,6 +1571,21 @@
   </si>
   <si>
     <t>(One piece) bikini warrior</t>
+  </si>
+  <si>
+    <t>Lilith</t>
+  </si>
+  <si>
+    <t>Reiji-SR</t>
+  </si>
+  <si>
+    <t>Uta-R</t>
+  </si>
+  <si>
+    <t>Uta-SR</t>
+  </si>
+  <si>
+    <t>(One piece) final form</t>
   </si>
 </sst>
 </file>
@@ -1994,8 +2009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F387"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A372" workbookViewId="0">
-      <selection activeCell="F381" sqref="F381"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4404,16 +4419,37 @@
       <c r="A334" t="s">
         <v>351</v>
       </c>
+      <c r="B334" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="C334" t="s">
+        <v>419</v>
+      </c>
+      <c r="E334" t="s">
+        <v>495</v>
+      </c>
+      <c r="F334" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="335" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>352</v>
       </c>
+      <c r="B335" s="3" t="s">
+        <v>518</v>
+      </c>
       <c r="C335" t="s">
-        <v>348</v>
+        <v>419</v>
       </c>
       <c r="D335" t="s">
         <v>13</v>
+      </c>
+      <c r="E335" t="s">
+        <v>519</v>
+      </c>
+      <c r="F335" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="336" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4425,6 +4461,21 @@
       <c r="A337" t="s">
         <v>354</v>
       </c>
+      <c r="B337" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="C337" t="s">
+        <v>418</v>
+      </c>
+      <c r="D337" t="s">
+        <v>421</v>
+      </c>
+      <c r="E337" t="s">
+        <v>495</v>
+      </c>
+      <c r="F337" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="338" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
@@ -4765,6 +4816,21 @@
     <row r="380" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>397</v>
+      </c>
+      <c r="B380" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="C380" t="s">
+        <v>421</v>
+      </c>
+      <c r="D380" t="s">
+        <v>409</v>
+      </c>
+      <c r="E380" t="s">
+        <v>495</v>
+      </c>
+      <c r="F380" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="381" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/Waimonlist.xlsx
+++ b/Waimonlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NUTTOD\Develope\ROMHACK\ROM\WAIMON\Gitupload\Waimon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57747F7A-C013-4321-9F9E-4D21F3EA2CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9F5DA9-93DA-4CF4-AC5E-9D00710669B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5352" yWindow="1620" windowWidth="17280" windowHeight="11268" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5784" yWindow="108" windowWidth="16008" windowHeight="11472" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2009,8 +2009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F387"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
+      <selection activeCell="E257" sqref="E257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Waimonlist.xlsx
+++ b/Waimonlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NUTTOD\Develope\ROMHACK\ROM\WAIMON\Gitupload\Waimon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9F5DA9-93DA-4CF4-AC5E-9D00710669B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106405AD-E0C6-41BD-BF98-57CCE7038FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5784" yWindow="108" windowWidth="16008" windowHeight="11472" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3084" yWindow="1308" windowWidth="16248" windowHeight="11472" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="528">
   <si>
     <t>Pokemon Name</t>
   </si>
@@ -1441,15 +1441,6 @@
     <t>Yoko-SR</t>
   </si>
   <si>
-    <t>(gurren lagann) normal</t>
-  </si>
-  <si>
-    <t>(gurren lagann) swimsuit 1</t>
-  </si>
-  <si>
-    <t>(gurren lagann) swimsuit 2</t>
-  </si>
-  <si>
     <t>(DNFDuel) bikini</t>
   </si>
   <si>
@@ -1586,6 +1577,39 @@
   </si>
   <si>
     <t>(One piece) final form</t>
+  </si>
+  <si>
+    <t>Toki-SR</t>
+  </si>
+  <si>
+    <t>Toki-R</t>
+  </si>
+  <si>
+    <t>(Gurren lagann) normal</t>
+  </si>
+  <si>
+    <t>(Gurren lagann) swimsuit 1</t>
+  </si>
+  <si>
+    <t>(Gurren lagann) swimsuit 2</t>
+  </si>
+  <si>
+    <t>(Blue Archive) bunny girl</t>
+  </si>
+  <si>
+    <t>Karin-SR</t>
+  </si>
+  <si>
+    <t>(Blue Arhive) bunny girl</t>
+  </si>
+  <si>
+    <t>Shiroko-R</t>
+  </si>
+  <si>
+    <t>Shiroko-SR</t>
+  </si>
+  <si>
+    <t>(Blue Archive) swimsuit</t>
   </si>
 </sst>
 </file>
@@ -2009,8 +2033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F387"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
-      <selection activeCell="E257" sqref="E257"/>
+    <sheetView tabSelected="1" topLeftCell="A252" workbookViewId="0">
+      <selection activeCell="E263" sqref="E263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2336,7 +2360,7 @@
         <v>417</v>
       </c>
       <c r="E40" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="F40" t="s">
         <v>430</v>
@@ -2353,7 +2377,7 @@
         <v>417</v>
       </c>
       <c r="E41" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F41" t="s">
         <v>430</v>
@@ -2695,7 +2719,7 @@
         <v>410</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>430</v>
@@ -2712,7 +2736,7 @@
         <v>410</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>430</v>
@@ -2828,13 +2852,13 @@
         <v>140</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C130" t="s">
         <v>422</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2842,7 +2866,7 @@
         <v>141</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C131" t="s">
         <v>422</v>
@@ -2988,7 +3012,7 @@
         <v>411</v>
       </c>
       <c r="E156" t="s">
-        <v>471</v>
+        <v>519</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3005,7 +3029,7 @@
         <v>410</v>
       </c>
       <c r="E157" t="s">
-        <v>472</v>
+        <v>520</v>
       </c>
       <c r="F157" t="s">
         <v>430</v>
@@ -3025,7 +3049,7 @@
         <v>410</v>
       </c>
       <c r="E158" t="s">
-        <v>473</v>
+        <v>521</v>
       </c>
       <c r="F158" t="s">
         <v>430</v>
@@ -3122,7 +3146,7 @@
         <v>417</v>
       </c>
       <c r="E175" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="F175" t="s">
         <v>430</v>
@@ -3242,6 +3266,21 @@
       <c r="A198" t="s">
         <v>208</v>
       </c>
+      <c r="B198" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="C198" t="s">
+        <v>407</v>
+      </c>
+      <c r="D198" t="s">
+        <v>412</v>
+      </c>
+      <c r="E198" t="s">
+        <v>524</v>
+      </c>
+      <c r="F198" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="199" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
@@ -3267,7 +3306,7 @@
         <v>421</v>
       </c>
       <c r="E201" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="F201" t="s">
         <v>430</v>
@@ -3308,107 +3347,131 @@
         <v>218</v>
       </c>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B224" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="C224" t="s">
+        <v>422</v>
+      </c>
+      <c r="E224" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B225" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="C225" t="s">
+        <v>422</v>
+      </c>
+      <c r="D225" t="s">
+        <v>409</v>
+      </c>
+      <c r="E225" t="s">
+        <v>522</v>
+      </c>
+      <c r="F225" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="227" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="228" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="229" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>239</v>
       </c>
@@ -3425,7 +3488,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="230" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>240</v>
       </c>
@@ -3442,52 +3505,52 @@
         <v>445</v>
       </c>
     </row>
-    <row r="231" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="232" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="233" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="234" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="235" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="236" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="237" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="238" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="240" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>250</v>
       </c>
@@ -3512,7 +3575,7 @@
         <v>254</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C244" t="s">
         <v>409</v>
@@ -3521,7 +3584,7 @@
         <v>407</v>
       </c>
       <c r="E244" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="F244" t="s">
         <v>430</v>
@@ -3532,7 +3595,7 @@
         <v>255</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C245" t="s">
         <v>411</v>
@@ -3541,7 +3604,7 @@
         <v>413</v>
       </c>
       <c r="E245" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="F245" t="s">
         <v>430</v>
@@ -3552,7 +3615,7 @@
         <v>256</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C246" t="s">
         <v>422</v>
@@ -3561,7 +3624,7 @@
         <v>416</v>
       </c>
       <c r="E246" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F246" t="s">
         <v>430</v>
@@ -3703,16 +3766,16 @@
         <v>272</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>447</v>
+        <v>525</v>
       </c>
       <c r="C262" t="s">
         <v>407</v>
       </c>
       <c r="E262" t="s">
-        <v>433</v>
+        <v>473</v>
       </c>
       <c r="F262" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="263" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3720,7 +3783,7 @@
         <v>273</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>448</v>
+        <v>526</v>
       </c>
       <c r="C263" t="s">
         <v>407</v>
@@ -3729,7 +3792,7 @@
         <v>409</v>
       </c>
       <c r="E263" t="s">
-        <v>449</v>
+        <v>527</v>
       </c>
       <c r="F263" t="s">
         <v>430</v>
@@ -3740,7 +3803,7 @@
         <v>274</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C264" t="s">
         <v>417</v>
@@ -3754,7 +3817,7 @@
         <v>275</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C265" t="s">
         <v>417</v>
@@ -3777,7 +3840,7 @@
         <v>407</v>
       </c>
       <c r="E266" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="F266" t="s">
         <v>430</v>
@@ -3794,7 +3857,7 @@
         <v>407</v>
       </c>
       <c r="E267" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="F267" t="s">
         <v>430</v>
@@ -3811,7 +3874,7 @@
         <v>407</v>
       </c>
       <c r="E268" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="F268" t="s">
         <v>430</v>
@@ -3828,7 +3891,7 @@
         <v>407</v>
       </c>
       <c r="E269" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="F269" t="s">
         <v>430</v>
@@ -3845,7 +3908,7 @@
         <v>407</v>
       </c>
       <c r="E270" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="F270" t="s">
         <v>430</v>
@@ -3906,7 +3969,7 @@
         <v>291</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C281" t="s">
         <v>292</v>
@@ -3915,7 +3978,7 @@
         <v>414</v>
       </c>
       <c r="E281" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="282" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3923,7 +3986,7 @@
         <v>293</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C282" t="s">
         <v>292</v>
@@ -3932,7 +3995,7 @@
         <v>414</v>
       </c>
       <c r="E282" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="283" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3940,7 +4003,7 @@
         <v>294</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C283" t="s">
         <v>292</v>
@@ -3949,7 +4012,7 @@
         <v>414</v>
       </c>
       <c r="E283" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="284" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3998,7 +4061,7 @@
         <v>406</v>
       </c>
       <c r="E291" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="F291" t="s">
         <v>432</v>
@@ -4018,7 +4081,7 @@
         <v>407</v>
       </c>
       <c r="E292" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="F292" t="s">
         <v>430</v>
@@ -4038,7 +4101,7 @@
         <v>413</v>
       </c>
       <c r="E293" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F293" t="s">
         <v>430</v>
@@ -4064,13 +4127,13 @@
         <v>308</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C297" t="s">
         <v>410</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="298" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4078,13 +4141,13 @@
         <v>309</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C298" t="s">
         <v>410</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="299" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4108,7 +4171,7 @@
         <v>422</v>
       </c>
       <c r="E301" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="F301" t="s">
         <v>431</v>
@@ -4125,7 +4188,7 @@
         <v>422</v>
       </c>
       <c r="E302" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F302" t="s">
         <v>431</v>
@@ -4215,24 +4278,51 @@
       <c r="A310" t="s">
         <v>325</v>
       </c>
+      <c r="B310" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="C310" t="s">
+        <v>407</v>
+      </c>
+      <c r="E310" t="s">
+        <v>433</v>
+      </c>
+      <c r="F310" t="s">
+        <v>431</v>
+      </c>
     </row>
     <row r="311" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>326</v>
       </c>
+      <c r="B311" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="C311" t="s">
+        <v>407</v>
+      </c>
+      <c r="D311" t="s">
+        <v>409</v>
+      </c>
+      <c r="E311" t="s">
+        <v>449</v>
+      </c>
+      <c r="F311" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="312" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>327</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C312" t="s">
         <v>409</v>
       </c>
       <c r="E312" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="F312" t="s">
         <v>430</v>
@@ -4243,13 +4333,13 @@
         <v>328</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C313" t="s">
         <v>409</v>
       </c>
       <c r="E313" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="F313" t="s">
         <v>430</v>
@@ -4294,7 +4384,7 @@
         <v>407</v>
       </c>
       <c r="E319" s="1" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="320" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4344,7 +4434,7 @@
         <v>341</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C326" t="s">
         <v>417</v>
@@ -4353,7 +4443,7 @@
         <v>419</v>
       </c>
       <c r="E326" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F326" t="s">
         <v>431</v>
@@ -4364,7 +4454,7 @@
         <v>342</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C327" t="s">
         <v>417</v>
@@ -4373,7 +4463,7 @@
         <v>419</v>
       </c>
       <c r="E327" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="F327" t="s">
         <v>431</v>
@@ -4420,13 +4510,13 @@
         <v>351</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C334" t="s">
         <v>419</v>
       </c>
       <c r="E334" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F334" t="s">
         <v>430</v>
@@ -4437,7 +4527,7 @@
         <v>352</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C335" t="s">
         <v>419</v>
@@ -4446,7 +4536,7 @@
         <v>13</v>
       </c>
       <c r="E335" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F335" t="s">
         <v>430</v>
@@ -4462,7 +4552,7 @@
         <v>354</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C337" t="s">
         <v>418</v>
@@ -4471,7 +4561,7 @@
         <v>421</v>
       </c>
       <c r="E337" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F337" t="s">
         <v>430</v>
@@ -4572,7 +4662,7 @@
         <v>367</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C350" t="s">
         <v>419</v>
@@ -4581,7 +4671,7 @@
         <v>422</v>
       </c>
       <c r="E350" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="F350" t="s">
         <v>431</v>
@@ -4592,7 +4682,7 @@
         <v>368</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C351" t="s">
         <v>419</v>
@@ -4601,7 +4691,7 @@
         <v>422</v>
       </c>
       <c r="E351" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="F351" t="s">
         <v>431</v>
@@ -4612,13 +4702,13 @@
         <v>369</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C352" t="s">
         <v>417</v>
       </c>
       <c r="E352" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="F352" t="s">
         <v>430</v>
@@ -4689,7 +4779,7 @@
         <v>419</v>
       </c>
       <c r="E359" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="F359" t="s">
         <v>430</v>
@@ -4818,7 +4908,7 @@
         <v>397</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C380" t="s">
         <v>421</v>
@@ -4827,7 +4917,7 @@
         <v>409</v>
       </c>
       <c r="E380" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F380" t="s">
         <v>430</v>
@@ -4838,7 +4928,7 @@
         <v>398</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C381" t="s">
         <v>422</v>
@@ -4847,7 +4937,7 @@
         <v>419</v>
       </c>
       <c r="E381" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="F381" t="s">
         <v>430</v>
@@ -4858,7 +4948,7 @@
         <v>399</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C382" t="s">
         <v>408</v>
@@ -4867,7 +4957,7 @@
         <v>421</v>
       </c>
       <c r="E382" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="F382" t="s">
         <v>430</v>

--- a/Waimonlist.xlsx
+++ b/Waimonlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NUTTOD\Develope\ROMHACK\ROM\WAIMON\Gitupload\Waimon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106405AD-E0C6-41BD-BF98-57CCE7038FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6FAFE8-0A0E-4051-9B70-16B59306EDDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3084" yWindow="1308" windowWidth="16248" windowHeight="11472" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="548">
   <si>
     <t>Pokemon Name</t>
   </si>
@@ -1339,9 +1339,6 @@
     <t>Jack-o-Valentine-C</t>
   </si>
   <si>
-    <t>Ramlethal-C</t>
-  </si>
-  <si>
     <t>Ramlethal-SR</t>
   </si>
   <si>
@@ -1534,9 +1531,6 @@
     <t>(Doaxvv) normal</t>
   </si>
   <si>
-    <t>(Doaxvv)</t>
-  </si>
-  <si>
     <t>(Doaxvv) swimsuit</t>
   </si>
   <si>
@@ -1564,9 +1558,6 @@
     <t>(One piece) bikini warrior</t>
   </si>
   <si>
-    <t>Lilith</t>
-  </si>
-  <si>
     <t>Reiji-SR</t>
   </si>
   <si>
@@ -1610,6 +1601,75 @@
   </si>
   <si>
     <t>(Blue Archive) swimsuit</t>
+  </si>
+  <si>
+    <t>(Doaxvv) black strive bikini with wing</t>
+  </si>
+  <si>
+    <t>(Doaxvv) sakimichan bikini style</t>
+  </si>
+  <si>
+    <t>(Doaxvv) doaxvv bikini 1</t>
+  </si>
+  <si>
+    <t>(Blue Arhive) normal</t>
+  </si>
+  <si>
+    <t>Kisaki-SR</t>
+  </si>
+  <si>
+    <t>Lilith-L</t>
+  </si>
+  <si>
+    <t>Moe-C</t>
+  </si>
+  <si>
+    <t>Moe-R</t>
+  </si>
+  <si>
+    <t>Moe-SR</t>
+  </si>
+  <si>
+    <t>(Blue Arhive) sport wear</t>
+  </si>
+  <si>
+    <t>(Blue Arhive) swimsuit</t>
+  </si>
+  <si>
+    <t>Tsurugi-SR</t>
+  </si>
+  <si>
+    <t>Tsurugi-R</t>
+  </si>
+  <si>
+    <t>Taihou-C</t>
+  </si>
+  <si>
+    <t>Taihou-R</t>
+  </si>
+  <si>
+    <t>Taihou-SR</t>
+  </si>
+  <si>
+    <t>(Azur lane) normal</t>
+  </si>
+  <si>
+    <t>(Azur lane) racequeen</t>
+  </si>
+  <si>
+    <t>(Azur lane) bunny girl</t>
+  </si>
+  <si>
+    <t>New jersey-R</t>
+  </si>
+  <si>
+    <t>New jersey-SR</t>
+  </si>
+  <si>
+    <t>Ramlethal-R</t>
+  </si>
+  <si>
+    <t>(Azur lane) bikini</t>
   </si>
 </sst>
 </file>
@@ -2033,8 +2093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F387"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A252" workbookViewId="0">
-      <selection activeCell="E263" sqref="E263"/>
+    <sheetView tabSelected="1" topLeftCell="A331" workbookViewId="0">
+      <selection activeCell="C337" sqref="C337"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2354,13 +2414,13 @@
         <v>50</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C40" t="s">
         <v>417</v>
       </c>
       <c r="E40" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F40" t="s">
         <v>430</v>
@@ -2371,13 +2431,13 @@
         <v>51</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C41" t="s">
         <v>417</v>
       </c>
       <c r="E41" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F41" t="s">
         <v>430</v>
@@ -2719,7 +2779,7 @@
         <v>410</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>430</v>
@@ -2736,7 +2796,7 @@
         <v>410</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>430</v>
@@ -2762,82 +2822,118 @@
         <v>122</v>
       </c>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B117" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="C117" t="s">
+        <v>422</v>
+      </c>
+      <c r="E117" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B118" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="C118" t="s">
+        <v>422</v>
+      </c>
+      <c r="D118" t="s">
+        <v>407</v>
+      </c>
+      <c r="E118" t="s">
+        <v>542</v>
+      </c>
+      <c r="F118" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B124" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="C124" t="s">
+        <v>407</v>
+      </c>
+      <c r="E124" t="s">
+        <v>528</v>
+      </c>
+      <c r="F124" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>138</v>
       </c>
@@ -2852,13 +2948,13 @@
         <v>140</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C130" t="s">
         <v>422</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2866,7 +2962,7 @@
         <v>141</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C131" t="s">
         <v>422</v>
@@ -3006,13 +3102,13 @@
         <v>166</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C156" t="s">
         <v>411</v>
       </c>
       <c r="E156" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3020,7 +3116,7 @@
         <v>167</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C157" t="s">
         <v>411</v>
@@ -3029,7 +3125,7 @@
         <v>410</v>
       </c>
       <c r="E157" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="F157" t="s">
         <v>430</v>
@@ -3040,7 +3136,7 @@
         <v>168</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C158" t="s">
         <v>411</v>
@@ -3049,7 +3145,7 @@
         <v>410</v>
       </c>
       <c r="E158" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="F158" t="s">
         <v>430</v>
@@ -3059,16 +3155,55 @@
       <c r="A159" t="s">
         <v>169</v>
       </c>
+      <c r="B159" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="C159" t="s">
+        <v>422</v>
+      </c>
+      <c r="E159" t="s">
+        <v>528</v>
+      </c>
     </row>
     <row r="160" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>170</v>
       </c>
+      <c r="B160" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="C160" t="s">
+        <v>422</v>
+      </c>
+      <c r="D160" t="s">
+        <v>411</v>
+      </c>
+      <c r="E160" t="s">
+        <v>534</v>
+      </c>
+      <c r="F160" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="161" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>171</v>
       </c>
+      <c r="B161" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="C161" t="s">
+        <v>422</v>
+      </c>
+      <c r="D161" t="s">
+        <v>411</v>
+      </c>
+      <c r="E161" t="s">
+        <v>535</v>
+      </c>
+      <c r="F161" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="162" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
@@ -3140,13 +3275,13 @@
         <v>185</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C175" t="s">
         <v>417</v>
       </c>
       <c r="E175" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F175" t="s">
         <v>430</v>
@@ -3261,13 +3396,22 @@
       <c r="A197" t="s">
         <v>207</v>
       </c>
+      <c r="B197" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="C197" t="s">
+        <v>419</v>
+      </c>
+      <c r="E197" t="s">
+        <v>528</v>
+      </c>
     </row>
     <row r="198" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>208</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C198" t="s">
         <v>407</v>
@@ -3276,7 +3420,7 @@
         <v>412</v>
       </c>
       <c r="E198" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="F198" t="s">
         <v>430</v>
@@ -3297,7 +3441,7 @@
         <v>211</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C201" t="s">
         <v>407</v>
@@ -3306,7 +3450,7 @@
         <v>421</v>
       </c>
       <c r="E201" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F201" t="s">
         <v>430</v>
@@ -3347,93 +3491,108 @@
         <v>218</v>
       </c>
     </row>
-    <row r="209" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="211" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B213" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="C213" t="s">
+        <v>407</v>
+      </c>
+      <c r="D213" t="s">
+        <v>421</v>
+      </c>
+      <c r="E213" t="s">
+        <v>528</v>
+      </c>
+      <c r="F213" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="215" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="216" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="217" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="218" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="219" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="220" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="221" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="224" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>234</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C224" t="s">
         <v>422</v>
       </c>
       <c r="E224" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="225" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3441,7 +3600,7 @@
         <v>235</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C225" t="s">
         <v>422</v>
@@ -3450,7 +3609,7 @@
         <v>409</v>
       </c>
       <c r="E225" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="F225" t="s">
         <v>430</v>
@@ -3476,7 +3635,7 @@
         <v>239</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C229" t="s">
         <v>407</v>
@@ -3493,7 +3652,7 @@
         <v>240</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C230" t="s">
         <v>407</v>
@@ -3502,13 +3661,28 @@
         <v>411</v>
       </c>
       <c r="E230" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="231" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>241</v>
       </c>
+      <c r="B231" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="C231" t="s">
+        <v>15</v>
+      </c>
+      <c r="D231" t="s">
+        <v>407</v>
+      </c>
+      <c r="E231" t="s">
+        <v>543</v>
+      </c>
+      <c r="F231" t="s">
+        <v>431</v>
+      </c>
     </row>
     <row r="232" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
@@ -3575,7 +3749,7 @@
         <v>254</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C244" t="s">
         <v>409</v>
@@ -3584,7 +3758,7 @@
         <v>407</v>
       </c>
       <c r="E244" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F244" t="s">
         <v>430</v>
@@ -3595,7 +3769,7 @@
         <v>255</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C245" t="s">
         <v>411</v>
@@ -3604,7 +3778,7 @@
         <v>413</v>
       </c>
       <c r="E245" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F245" t="s">
         <v>430</v>
@@ -3615,7 +3789,7 @@
         <v>256</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C246" t="s">
         <v>422</v>
@@ -3624,7 +3798,7 @@
         <v>416</v>
       </c>
       <c r="E246" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F246" t="s">
         <v>430</v>
@@ -3680,7 +3854,7 @@
         <v>266</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C256" s="1" t="s">
         <v>411</v>
@@ -3697,7 +3871,7 @@
         <v>267</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C257" t="s">
         <v>10</v>
@@ -3714,7 +3888,7 @@
         <v>268</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C258" t="s">
         <v>411</v>
@@ -3766,13 +3940,13 @@
         <v>272</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C262" t="s">
         <v>407</v>
       </c>
       <c r="E262" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F262" t="s">
         <v>432</v>
@@ -3783,7 +3957,7 @@
         <v>273</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C263" t="s">
         <v>407</v>
@@ -3792,7 +3966,7 @@
         <v>409</v>
       </c>
       <c r="E263" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="F263" t="s">
         <v>430</v>
@@ -3803,10 +3977,13 @@
         <v>274</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C264" t="s">
         <v>417</v>
+      </c>
+      <c r="E264" t="s">
+        <v>472</v>
       </c>
       <c r="F264" t="s">
         <v>430</v>
@@ -3817,13 +3994,16 @@
         <v>275</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C265" t="s">
         <v>417</v>
       </c>
       <c r="D265" t="s">
         <v>409</v>
+      </c>
+      <c r="E265" t="s">
+        <v>519</v>
       </c>
       <c r="F265" t="s">
         <v>430</v>
@@ -3834,13 +4014,13 @@
         <v>276</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C266" t="s">
         <v>407</v>
       </c>
       <c r="E266" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="F266" t="s">
         <v>430</v>
@@ -3851,13 +4031,13 @@
         <v>277</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C267" t="s">
         <v>407</v>
       </c>
       <c r="E267" t="s">
-        <v>502</v>
+        <v>525</v>
       </c>
       <c r="F267" t="s">
         <v>430</v>
@@ -3868,13 +4048,13 @@
         <v>278</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C268" t="s">
         <v>407</v>
       </c>
       <c r="E268" t="s">
-        <v>502</v>
+        <v>526</v>
       </c>
       <c r="F268" t="s">
         <v>430</v>
@@ -3885,13 +4065,13 @@
         <v>279</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C269" t="s">
         <v>407</v>
       </c>
       <c r="E269" t="s">
-        <v>502</v>
+        <v>527</v>
       </c>
       <c r="F269" t="s">
         <v>430</v>
@@ -3902,13 +4082,13 @@
         <v>280</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C270" t="s">
         <v>407</v>
       </c>
       <c r="E270" t="s">
-        <v>502</v>
+        <v>527</v>
       </c>
       <c r="F270" t="s">
         <v>430</v>
@@ -3969,7 +4149,7 @@
         <v>291</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C281" t="s">
         <v>292</v>
@@ -3978,7 +4158,7 @@
         <v>414</v>
       </c>
       <c r="E281" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="282" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3986,7 +4166,7 @@
         <v>293</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C282" t="s">
         <v>292</v>
@@ -3995,7 +4175,7 @@
         <v>414</v>
       </c>
       <c r="E282" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="283" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4003,7 +4183,7 @@
         <v>294</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C283" t="s">
         <v>292</v>
@@ -4012,7 +4192,7 @@
         <v>414</v>
       </c>
       <c r="E283" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="284" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4055,13 +4235,13 @@
         <v>302</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C291" t="s">
         <v>406</v>
       </c>
       <c r="E291" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F291" t="s">
         <v>432</v>
@@ -4072,7 +4252,7 @@
         <v>303</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C292" t="s">
         <v>406</v>
@@ -4081,7 +4261,7 @@
         <v>407</v>
       </c>
       <c r="E292" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F292" t="s">
         <v>430</v>
@@ -4092,7 +4272,7 @@
         <v>304</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C293" t="s">
         <v>406</v>
@@ -4101,7 +4281,7 @@
         <v>413</v>
       </c>
       <c r="E293" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F293" t="s">
         <v>430</v>
@@ -4127,13 +4307,13 @@
         <v>308</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C297" t="s">
         <v>410</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="298" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4141,13 +4321,13 @@
         <v>309</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C298" t="s">
         <v>410</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="299" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4165,13 +4345,13 @@
         <v>312</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C301" t="s">
         <v>422</v>
       </c>
       <c r="E301" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F301" t="s">
         <v>431</v>
@@ -4182,13 +4362,13 @@
         <v>313</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C302" t="s">
         <v>422</v>
       </c>
       <c r="E302" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F302" t="s">
         <v>431</v>
@@ -4239,7 +4419,7 @@
         <v>323</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C308" t="s">
         <v>410</v>
@@ -4259,7 +4439,7 @@
         <v>324</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C309" t="s">
         <v>410</v>
@@ -4268,7 +4448,7 @@
         <v>419</v>
       </c>
       <c r="E309" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F309" t="s">
         <v>431</v>
@@ -4279,7 +4459,7 @@
         <v>325</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C310" t="s">
         <v>407</v>
@@ -4296,7 +4476,7 @@
         <v>326</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C311" t="s">
         <v>407</v>
@@ -4305,7 +4485,7 @@
         <v>409</v>
       </c>
       <c r="E311" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F311" t="s">
         <v>430</v>
@@ -4316,13 +4496,13 @@
         <v>327</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C312" t="s">
         <v>409</v>
       </c>
       <c r="E312" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F312" t="s">
         <v>430</v>
@@ -4333,13 +4513,13 @@
         <v>328</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C313" t="s">
         <v>409</v>
       </c>
       <c r="E313" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F313" t="s">
         <v>430</v>
@@ -4375,7 +4555,7 @@
         <v>334</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C319" t="s">
         <v>422</v>
@@ -4384,7 +4564,7 @@
         <v>407</v>
       </c>
       <c r="E319" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="320" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4392,7 +4572,7 @@
         <v>335</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C320" t="s">
         <v>422</v>
@@ -4434,7 +4614,7 @@
         <v>341</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C326" t="s">
         <v>417</v>
@@ -4443,7 +4623,7 @@
         <v>419</v>
       </c>
       <c r="E326" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F326" t="s">
         <v>431</v>
@@ -4454,7 +4634,7 @@
         <v>342</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C327" t="s">
         <v>417</v>
@@ -4463,7 +4643,7 @@
         <v>419</v>
       </c>
       <c r="E327" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="F327" t="s">
         <v>431</v>
@@ -4510,13 +4690,13 @@
         <v>351</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C334" t="s">
         <v>419</v>
       </c>
       <c r="E334" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F334" t="s">
         <v>430</v>
@@ -4527,7 +4707,7 @@
         <v>352</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C335" t="s">
         <v>419</v>
@@ -4536,7 +4716,7 @@
         <v>13</v>
       </c>
       <c r="E335" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="F335" t="s">
         <v>430</v>
@@ -4552,7 +4732,7 @@
         <v>354</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C337" t="s">
         <v>418</v>
@@ -4561,7 +4741,7 @@
         <v>421</v>
       </c>
       <c r="E337" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F337" t="s">
         <v>430</v>
@@ -4591,18 +4771,48 @@
       <c r="A342" t="s">
         <v>359</v>
       </c>
+      <c r="B342" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="C342" t="s">
+        <v>15</v>
+      </c>
+      <c r="D342" t="s">
+        <v>408</v>
+      </c>
+      <c r="E342" t="s">
+        <v>541</v>
+      </c>
+      <c r="F342" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="343" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>360</v>
       </c>
+      <c r="B343" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="C343" t="s">
+        <v>15</v>
+      </c>
+      <c r="D343" t="s">
+        <v>408</v>
+      </c>
+      <c r="E343" t="s">
+        <v>547</v>
+      </c>
+      <c r="F343" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="344" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>361</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>437</v>
+        <v>546</v>
       </c>
       <c r="C344" t="s">
         <v>421</v>
@@ -4622,7 +4832,7 @@
         <v>362</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C345" t="s">
         <v>421</v>
@@ -4662,7 +4872,7 @@
         <v>367</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C350" t="s">
         <v>419</v>
@@ -4671,7 +4881,7 @@
         <v>422</v>
       </c>
       <c r="E350" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F350" t="s">
         <v>431</v>
@@ -4682,7 +4892,7 @@
         <v>368</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C351" t="s">
         <v>419</v>
@@ -4691,7 +4901,7 @@
         <v>422</v>
       </c>
       <c r="E351" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F351" t="s">
         <v>431</v>
@@ -4702,13 +4912,13 @@
         <v>369</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C352" t="s">
         <v>417</v>
       </c>
       <c r="E352" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F352" t="s">
         <v>430</v>
@@ -4741,7 +4951,7 @@
         <v>372</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C355" t="s">
         <v>413</v>
@@ -4773,13 +4983,13 @@
         <v>376</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C359" t="s">
         <v>419</v>
       </c>
       <c r="E359" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F359" t="s">
         <v>430</v>
@@ -4790,7 +5000,7 @@
         <v>377</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C360" t="s">
         <v>407</v>
@@ -4908,7 +5118,7 @@
         <v>397</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>512</v>
+        <v>530</v>
       </c>
       <c r="C380" t="s">
         <v>421</v>
@@ -4917,7 +5127,7 @@
         <v>409</v>
       </c>
       <c r="E380" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F380" t="s">
         <v>430</v>
@@ -4928,7 +5138,7 @@
         <v>398</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C381" t="s">
         <v>422</v>
@@ -4937,7 +5147,7 @@
         <v>419</v>
       </c>
       <c r="E381" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F381" t="s">
         <v>430</v>
@@ -4948,7 +5158,7 @@
         <v>399</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C382" t="s">
         <v>408</v>
@@ -4957,7 +5167,7 @@
         <v>421</v>
       </c>
       <c r="E382" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F382" t="s">
         <v>430</v>

--- a/Waimonlist.xlsx
+++ b/Waimonlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NUTTOD\Develope\ROMHACK\ROM\WAIMON\Gitupload\Waimon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6FAFE8-0A0E-4051-9B70-16B59306EDDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E730F07-7759-48DA-8EC6-10901C359A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="554">
   <si>
     <t>Pokemon Name</t>
   </si>
@@ -1670,6 +1670,24 @@
   </si>
   <si>
     <t>(Azur lane) bikini</t>
+  </si>
+  <si>
+    <t>Android 21-G</t>
+  </si>
+  <si>
+    <t>Android 21-E</t>
+  </si>
+  <si>
+    <t>(Dragonball) good</t>
+  </si>
+  <si>
+    <t>(Dragonball) evil</t>
+  </si>
+  <si>
+    <t>(Naruto) normal expose more</t>
+  </si>
+  <si>
+    <t>Tsunade-L</t>
   </si>
 </sst>
 </file>
@@ -2093,8 +2111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F387"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A331" workbookViewId="0">
-      <selection activeCell="C337" sqref="C337"/>
+    <sheetView tabSelected="1" topLeftCell="A239" workbookViewId="0">
+      <selection activeCell="F246" sqref="F246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2722,11 +2740,35 @@
       <c r="A97" t="s">
         <v>107</v>
       </c>
+      <c r="B97" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="C97" t="s">
+        <v>419</v>
+      </c>
+      <c r="E97" t="s">
+        <v>550</v>
+      </c>
+      <c r="F97" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="98" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>108</v>
       </c>
+      <c r="B98" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="C98" t="s">
+        <v>419</v>
+      </c>
+      <c r="E98" t="s">
+        <v>551</v>
+      </c>
+      <c r="F98" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="99" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
@@ -3832,6 +3874,21 @@
     <row r="252" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>262</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="C252" t="s">
+        <v>410</v>
+      </c>
+      <c r="D252" t="s">
+        <v>414</v>
+      </c>
+      <c r="E252" t="s">
+        <v>552</v>
+      </c>
+      <c r="F252" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="253" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/Waimonlist.xlsx
+++ b/Waimonlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NUTTOD\Develope\ROMHACK\ROM\WAIMON\Gitupload\Waimon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E730F07-7759-48DA-8EC6-10901C359A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7DC2E2C-2F35-4892-A498-D5E917CE4D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2172" yWindow="372" windowWidth="18420" windowHeight="11472" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="567">
   <si>
     <t>Pokemon Name</t>
   </si>
@@ -1688,6 +1688,45 @@
   </si>
   <si>
     <t>Tsunade-L</t>
+  </si>
+  <si>
+    <t>Rukia-R</t>
+  </si>
+  <si>
+    <t>Rukia-SR</t>
+  </si>
+  <si>
+    <t>(Bleach) bankai</t>
+  </si>
+  <si>
+    <t>(Bleach) bikini</t>
+  </si>
+  <si>
+    <t>Inoue-R</t>
+  </si>
+  <si>
+    <t>Inoue-SR</t>
+  </si>
+  <si>
+    <t>Nelliel-C</t>
+  </si>
+  <si>
+    <t>Nelliel-R</t>
+  </si>
+  <si>
+    <t>Nelliel-SR</t>
+  </si>
+  <si>
+    <t>(Bleach) child from</t>
+  </si>
+  <si>
+    <t>Ryoko-L</t>
+  </si>
+  <si>
+    <t>Satsuki-L</t>
+  </si>
+  <si>
+    <t>(Kill la kill) battle form</t>
   </si>
 </sst>
 </file>
@@ -2111,8 +2150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F387"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A239" workbookViewId="0">
-      <selection activeCell="F246" sqref="F246"/>
+    <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
+      <selection activeCell="E233" sqref="E233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2873,6 +2912,15 @@
       <c r="A114" t="s">
         <v>124</v>
       </c>
+      <c r="B114" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="C114" t="s">
+        <v>417</v>
+      </c>
+      <c r="E114" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="115" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
@@ -3785,6 +3833,15 @@
       <c r="A243" t="s">
         <v>253</v>
       </c>
+      <c r="B243" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="C243" t="s">
+        <v>417</v>
+      </c>
+      <c r="E243" t="s">
+        <v>557</v>
+      </c>
     </row>
     <row r="244" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
@@ -3865,11 +3922,35 @@
       <c r="A250" t="s">
         <v>260</v>
       </c>
+      <c r="B250" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="C250" t="s">
+        <v>419</v>
+      </c>
+      <c r="D250" t="s">
+        <v>412</v>
+      </c>
+      <c r="E250" t="s">
+        <v>566</v>
+      </c>
     </row>
     <row r="251" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>261</v>
       </c>
+      <c r="B251" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="C251" t="s">
+        <v>411</v>
+      </c>
+      <c r="D251" t="s">
+        <v>412</v>
+      </c>
+      <c r="E251" t="s">
+        <v>566</v>
+      </c>
     </row>
     <row r="252" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
@@ -5078,11 +5159,32 @@
       <c r="A362" t="s">
         <v>379</v>
       </c>
+      <c r="B362" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="C362" t="s">
+        <v>416</v>
+      </c>
+      <c r="E362" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="363" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>380</v>
       </c>
+      <c r="B363" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="C363" t="s">
+        <v>416</v>
+      </c>
+      <c r="E363" t="s">
+        <v>556</v>
+      </c>
+      <c r="F363" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="364" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
@@ -5128,21 +5230,45 @@
       <c r="A372" t="s">
         <v>389</v>
       </c>
+      <c r="B372" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="C372" t="s">
+        <v>348</v>
+      </c>
+      <c r="E372" t="s">
+        <v>563</v>
+      </c>
     </row>
     <row r="373" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>390</v>
       </c>
+      <c r="B373" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="C373" t="s">
+        <v>348</v>
+      </c>
+      <c r="E373" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="374" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>391</v>
       </c>
+      <c r="B374" s="3" t="s">
+        <v>562</v>
+      </c>
       <c r="C374" t="s">
         <v>348</v>
       </c>
       <c r="D374" t="s">
         <v>13</v>
+      </c>
+      <c r="E374" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="375" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
